--- a/FamilySorting/res/Реестр_семейств.xlsx
+++ b/FamilySorting/res/Реестр_семейств.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="0" windowWidth="5700" windowHeight="6720" activeTab="2"/>
+    <workbookView xWindow="14820" yWindow="0" windowWidth="5700" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Реестр семейств" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="ссылка">#REF!</definedName>
     <definedName name="Электрика_Код1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="" roundtripDataSignature="AMtx7mgFIXmmuvuOVnfWBgQ4nTOikvEVng=="/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>GUID</t>
   </si>
@@ -45,36 +45,6 @@
   </si>
   <si>
     <t>Примечание</t>
-  </si>
-  <si>
-    <t>fc52e790-0d45-49b1-91cf-fd735ef805c5</t>
-  </si>
-  <si>
-    <t>Детали дверки.rfa</t>
-  </si>
-  <si>
-    <t>16-07-2021</t>
-  </si>
-  <si>
-    <t>sidorin_o</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> первое</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> второй раз</t>
-  </si>
-  <si>
-    <t>8d4664c6-0f77-47e5-a7f7-ab5ee21b7de4</t>
-  </si>
-  <si>
-    <t>Теплообменник удалить.rfa</t>
-  </si>
-  <si>
-    <t>19-07-2021</t>
-  </si>
-  <si>
-    <t>Парарам</t>
   </si>
   <si>
     <t>GUID семейства</t>
@@ -145,45 +115,11 @@
   <si>
     <t>Например, R2019</t>
   </si>
-  <si>
-    <t>Архитектура</t>
-  </si>
-  <si>
-    <t>Двери</t>
-  </si>
-  <si>
-    <t>Детали</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>R19</t>
-  </si>
-  <si>
-    <t>Механические системы</t>
-  </si>
-  <si>
-    <t>Оборудование</t>
-  </si>
-  <si>
-    <t>Теплообменники</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -240,36 +176,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" fillId="0" applyFill="1" borderId="1" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill patternType="none"/>
@@ -338,216 +274,12 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffd8d8d8"/>
-          <bgColor rgb="ffd8d8d8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffdeeaf6"/>
-          <bgColor rgb="ffdeeaf6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="ff000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="ff000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffbdd6ee"/>
-          <bgColor rgb="ffbdd6ee"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="ff000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="ff000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffd8d8d8"/>
-          <bgColor rgb="ffd8d8d8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffdeeaf6"/>
-          <bgColor rgb="ffdeeaf6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="ff000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="ff000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffbdd6ee"/>
-          <bgColor rgb="ffbdd6ee"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="ff000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="ff000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="0"/>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffd8d8d8"/>
-          <bgColor rgb="ffd8d8d8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffdeeaf6"/>
-          <bgColor rgb="ffdeeaf6"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="ff000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="ff000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="ffbdd6ee"/>
-          <bgColor rgb="ffbdd6ee"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color rgb="ff000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="ff000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1">
     <tableStyle name="Админка-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
+      <tableStyleElement type="firstRowStripe" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
 </styleSheet>
@@ -750,84 +482,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AA737"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1" style="4"/>
-    <col min="2" max="2" width="15.25" customWidth="1" style="4"/>
-    <col min="3" max="3" width="16.25" customWidth="1" style="4"/>
-    <col min="4" max="4" width="17.625" customWidth="1" style="4"/>
-    <col min="5" max="5" bestFit="1" width="31.375" customWidth="1" style="4"/>
-    <col min="6" max="6" width="14.75" customWidth="1" style="4"/>
-    <col min="7" max="7" width="14.25" customWidth="1" style="4"/>
-    <col min="8" max="8" width="19.875" customWidth="1" style="4"/>
-    <col min="9" max="9" width="13.5" customWidth="1" style="4"/>
-    <col min="10" max="11" width="12.125" customWidth="1" style="4"/>
-    <col min="12" max="12" width="9.75" customWidth="1" style="4"/>
-    <col min="13" max="13" width="25.625" customWidth="1" style="4"/>
-    <col min="14" max="15" width="6.625" customWidth="1" style="4"/>
-    <col min="16" max="16" width="11.375" customWidth="1" style="4"/>
-    <col min="17" max="17" width="10.25" customWidth="1" style="4"/>
-    <col min="18" max="18" width="7.375" customWidth="1" style="4"/>
-    <col min="19" max="19" width="18.75" customWidth="1" style="4"/>
-    <col min="20" max="20" width="39.375" customWidth="1" style="4"/>
-    <col min="21" max="21" width="25.75" customWidth="1" style="4"/>
-    <col min="22" max="23" width="6.625" customWidth="1" style="4"/>
-    <col min="24" max="24" width="16.5" customWidth="1" style="4"/>
-    <col min="25" max="25" width="13.5" customWidth="1" style="4"/>
-    <col min="26" max="26" width="13.125" customWidth="1" style="4"/>
-    <col min="27" max="27" width="6.625" customWidth="1" style="4"/>
-    <col min="28" max="28" width="12.625" customWidth="1" style="4"/>
-    <col min="29" max="16384" width="12.625" customWidth="1" style="4"/>
+    <col min="1" max="1" width="12.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.19921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="31.3984375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="14.19921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.8984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="4" customWidth="1"/>
+    <col min="10" max="11" width="12.09765625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="9.69921875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="25.59765625" style="4" customWidth="1"/>
+    <col min="14" max="15" width="6.59765625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="11.3984375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="10.19921875" style="4" customWidth="1"/>
+    <col min="18" max="18" width="7.3984375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="18.69921875" style="4" customWidth="1"/>
+    <col min="20" max="20" width="39.3984375" style="4" customWidth="1"/>
+    <col min="21" max="21" width="25.69921875" style="4" customWidth="1"/>
+    <col min="22" max="23" width="6.59765625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="16.5" style="4" customWidth="1"/>
+    <col min="25" max="25" width="13.5" style="4" customWidth="1"/>
+    <col min="26" max="26" width="13.09765625" style="4" customWidth="1"/>
+    <col min="27" max="27" width="6.59765625" style="4" customWidth="1"/>
+    <col min="28" max="29" width="12.59765625" style="4" customWidth="1"/>
+    <col min="30" max="16384" width="12.59765625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:27" ht="29.25" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -845,42 +577,42 @@
       <c r="Z1" s="2"/>
       <c r="AA1" s="2"/>
     </row>
-    <row r="2" ht="75">
+    <row r="2" spans="1:27" ht="57.6">
       <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
@@ -898,91 +630,31 @@
       <c r="Z2" s="7"/>
       <c r="AA2" s="7"/>
     </row>
-    <row r="3" ht="29.25" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>44</v>
-      </c>
+    <row r="3" spans="1:27" ht="29.25" customHeight="1">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="8"/>
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
     </row>
-    <row r="4" ht="29.25" customHeight="1">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>44</v>
-      </c>
+    <row r="4" spans="1:27" ht="29.25" customHeight="1">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="8"/>
       <c r="R4" s="7"/>
       <c r="S4" s="7"/>
     </row>
-    <row r="5" ht="29.25" customHeight="1">
+    <row r="5" spans="1:27" ht="29.25" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -994,7 +666,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
     </row>
-    <row r="6" ht="29.25" customHeight="1">
+    <row r="6" spans="1:27" ht="29.25" customHeight="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1006,7 +678,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="7"/>
     </row>
-    <row r="7" ht="29.25" customHeight="1">
+    <row r="7" spans="1:27" ht="29.25" customHeight="1">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -1018,7 +690,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="7"/>
     </row>
-    <row r="8" ht="29.25" customHeight="1">
+    <row r="8" spans="1:27" ht="29.25" customHeight="1">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1030,7 +702,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
     </row>
-    <row r="9" ht="29.25" customHeight="1">
+    <row r="9" spans="1:27" ht="29.25" customHeight="1">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1042,7 +714,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
     </row>
-    <row r="10" ht="29.25" customHeight="1">
+    <row r="10" spans="1:27" ht="29.25" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1054,7 +726,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="7"/>
     </row>
-    <row r="11" ht="29.25" customHeight="1">
+    <row r="11" spans="1:27" ht="29.25" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1066,7 +738,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
     </row>
-    <row r="12" ht="29.25" customHeight="1">
+    <row r="12" spans="1:27" ht="29.25" customHeight="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1078,7 +750,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
     </row>
-    <row r="13" ht="29.25" customHeight="1">
+    <row r="13" spans="1:27" ht="29.25" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1090,7 +762,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="7"/>
     </row>
-    <row r="14" ht="29.25" customHeight="1">
+    <row r="14" spans="1:27" ht="29.25" customHeight="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1102,7 +774,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
     </row>
-    <row r="15" ht="29.25" customHeight="1">
+    <row r="15" spans="1:27" ht="29.25" customHeight="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1114,7 +786,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
     </row>
-    <row r="16" ht="29.25" customHeight="1">
+    <row r="16" spans="1:27" ht="29.25" customHeight="1">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1126,7 +798,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" ht="29.25" customHeight="1">
+    <row r="17" spans="1:19" ht="29.25" customHeight="1">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1138,7 +810,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
     </row>
-    <row r="18" ht="29.25" customHeight="1">
+    <row r="18" spans="1:19" ht="29.25" customHeight="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1150,7 +822,7 @@
       <c r="R18" s="7"/>
       <c r="S18" s="7"/>
     </row>
-    <row r="19" ht="29.25" customHeight="1">
+    <row r="19" spans="1:19" ht="29.25" customHeight="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1162,7 +834,7 @@
       <c r="R19" s="7"/>
       <c r="S19" s="7"/>
     </row>
-    <row r="20" ht="29.25" customHeight="1">
+    <row r="20" spans="1:19" ht="29.25" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1174,7 +846,7 @@
       <c r="R20" s="7"/>
       <c r="S20" s="7"/>
     </row>
-    <row r="21" ht="29.25" customHeight="1">
+    <row r="21" spans="1:19" ht="29.25" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1186,7 +858,7 @@
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" ht="29.25" customHeight="1">
+    <row r="22" spans="1:19" ht="29.25" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1198,7 +870,7 @@
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
     </row>
-    <row r="23" ht="29.25" customHeight="1">
+    <row r="23" spans="1:19" ht="29.25" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1210,7 +882,7 @@
       <c r="R23" s="7"/>
       <c r="S23" s="7"/>
     </row>
-    <row r="24" ht="29.25" customHeight="1">
+    <row r="24" spans="1:19" ht="29.25" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1222,7 +894,7 @@
       <c r="R24" s="7"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" ht="29.25" customHeight="1">
+    <row r="25" spans="1:19" ht="29.25" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1234,7 +906,7 @@
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
     </row>
-    <row r="26" ht="29.25" customHeight="1">
+    <row r="26" spans="1:19" ht="29.25" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1246,7 +918,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
     </row>
-    <row r="27" ht="29.25" customHeight="1">
+    <row r="27" spans="1:19" ht="29.25" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1258,7 +930,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
     </row>
-    <row r="28" ht="29.25" customHeight="1">
+    <row r="28" spans="1:19" ht="29.25" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1270,7 +942,7 @@
       <c r="R28" s="7"/>
       <c r="S28" s="7"/>
     </row>
-    <row r="29" ht="29.25" customHeight="1">
+    <row r="29" spans="1:19" ht="29.25" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1282,7 +954,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
     </row>
-    <row r="30" ht="29.25" customHeight="1">
+    <row r="30" spans="1:19" ht="29.25" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1294,7 +966,7 @@
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
     </row>
-    <row r="31" ht="29.25" customHeight="1">
+    <row r="31" spans="1:19" ht="29.25" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1306,7 +978,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
     </row>
-    <row r="32" ht="29.25" customHeight="1">
+    <row r="32" spans="1:19" ht="29.25" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1318,7 +990,7 @@
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
     </row>
-    <row r="33" ht="29.25" customHeight="1">
+    <row r="33" spans="1:19" ht="29.25" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1330,7 +1002,7 @@
       <c r="R33" s="7"/>
       <c r="S33" s="7"/>
     </row>
-    <row r="34" ht="29.25" customHeight="1">
+    <row r="34" spans="1:19" ht="29.25" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1342,7 +1014,7 @@
       <c r="R34" s="7"/>
       <c r="S34" s="7"/>
     </row>
-    <row r="35" ht="29.25" customHeight="1">
+    <row r="35" spans="1:19" ht="29.25" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1354,7 +1026,7 @@
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
     </row>
-    <row r="36" ht="29.25" customHeight="1">
+    <row r="36" spans="1:19" ht="29.25" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1366,7 +1038,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
     </row>
-    <row r="37" ht="29.25" customHeight="1">
+    <row r="37" spans="1:19" ht="29.25" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1378,7 +1050,7 @@
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
     </row>
-    <row r="38" ht="29.25" customHeight="1">
+    <row r="38" spans="1:19" ht="29.25" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1390,7 +1062,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
     </row>
-    <row r="39" ht="29.25" customHeight="1">
+    <row r="39" spans="1:19" ht="29.25" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1402,7 +1074,7 @@
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
     </row>
-    <row r="40" ht="29.25" customHeight="1">
+    <row r="40" spans="1:19" ht="29.25" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1414,7 +1086,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
     </row>
-    <row r="41" ht="29.25" customHeight="1">
+    <row r="41" spans="1:19" ht="29.25" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1426,7 +1098,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
     </row>
-    <row r="42" ht="29.25" customHeight="1">
+    <row r="42" spans="1:19" ht="29.25" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1438,7 +1110,7 @@
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
     </row>
-    <row r="43" ht="29.25" customHeight="1">
+    <row r="43" spans="1:19" ht="29.25" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1450,7 +1122,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
     </row>
-    <row r="44" ht="29.25" customHeight="1">
+    <row r="44" spans="1:19" ht="29.25" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1462,7 +1134,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
     </row>
-    <row r="45" ht="29.25" customHeight="1">
+    <row r="45" spans="1:19" ht="29.25" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1474,7 +1146,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
     </row>
-    <row r="46" ht="29.25" customHeight="1">
+    <row r="46" spans="1:19" ht="29.25" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1486,7 +1158,7 @@
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
     </row>
-    <row r="47" ht="29.25" customHeight="1">
+    <row r="47" spans="1:19" ht="29.25" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1498,7 +1170,7 @@
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
     </row>
-    <row r="48" ht="29.25" customHeight="1">
+    <row r="48" spans="1:19" ht="29.25" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1510,7 +1182,7 @@
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
     </row>
-    <row r="49" ht="29.25" customHeight="1">
+    <row r="49" spans="1:19" ht="29.25" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1522,7 +1194,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
     </row>
-    <row r="50" ht="29.25" customHeight="1">
+    <row r="50" spans="1:19" ht="29.25" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1534,7 +1206,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
     </row>
-    <row r="51" ht="29.25" customHeight="1">
+    <row r="51" spans="1:19" ht="29.25" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1546,7 +1218,7 @@
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
     </row>
-    <row r="52" ht="29.25" customHeight="1">
+    <row r="52" spans="1:19" ht="29.25" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1558,7 +1230,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
     </row>
-    <row r="53" ht="29.25" customHeight="1">
+    <row r="53" spans="1:19" ht="29.25" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1570,7 +1242,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
     </row>
-    <row r="54" ht="29.25" customHeight="1">
+    <row r="54" spans="1:19" ht="29.25" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1582,7 +1254,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
     </row>
-    <row r="55" ht="29.25" customHeight="1">
+    <row r="55" spans="1:19" ht="29.25" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1594,7 +1266,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
     </row>
-    <row r="56" ht="29.25" customHeight="1">
+    <row r="56" spans="1:19" ht="29.25" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1606,7 +1278,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
     </row>
-    <row r="57" ht="29.25" customHeight="1">
+    <row r="57" spans="1:19" ht="29.25" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1618,7 +1290,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
     </row>
-    <row r="58" ht="29.25" customHeight="1">
+    <row r="58" spans="1:19" ht="29.25" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1630,7 +1302,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
     </row>
-    <row r="59" ht="29.25" customHeight="1">
+    <row r="59" spans="1:19" ht="29.25" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1642,7 +1314,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
     </row>
-    <row r="60" ht="29.25" customHeight="1">
+    <row r="60" spans="1:19" ht="29.25" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1654,7 +1326,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
     </row>
-    <row r="61" ht="29.25" customHeight="1">
+    <row r="61" spans="1:19" ht="29.25" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1666,7 +1338,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
     </row>
-    <row r="62" ht="29.25" customHeight="1">
+    <row r="62" spans="1:19" ht="29.25" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1678,7 +1350,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
     </row>
-    <row r="63" ht="29.25" customHeight="1">
+    <row r="63" spans="1:19" ht="29.25" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1690,7 +1362,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
     </row>
-    <row r="64" ht="29.25" customHeight="1">
+    <row r="64" spans="1:19" ht="29.25" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1702,7 +1374,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
     </row>
-    <row r="65" ht="29.25" customHeight="1">
+    <row r="65" spans="1:19" ht="29.25" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1714,7 +1386,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
     </row>
-    <row r="66" ht="29.25" customHeight="1">
+    <row r="66" spans="1:19" ht="29.25" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1726,7 +1398,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
     </row>
-    <row r="67" ht="29.25" customHeight="1">
+    <row r="67" spans="1:19" ht="29.25" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1738,7 +1410,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
     </row>
-    <row r="68" ht="29.25" customHeight="1">
+    <row r="68" spans="1:19" ht="29.25" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1750,7 +1422,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
     </row>
-    <row r="69" ht="29.25" customHeight="1">
+    <row r="69" spans="1:19" ht="29.25" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1762,7 +1434,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
     </row>
-    <row r="70" ht="29.25" customHeight="1">
+    <row r="70" spans="1:19" ht="29.25" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1774,7 +1446,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
     </row>
-    <row r="71" ht="29.25" customHeight="1">
+    <row r="71" spans="1:19" ht="29.25" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1786,7 +1458,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
     </row>
-    <row r="72" ht="29.25" customHeight="1">
+    <row r="72" spans="1:19" ht="29.25" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1798,7 +1470,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
     </row>
-    <row r="73" ht="29.25" customHeight="1">
+    <row r="73" spans="1:19" ht="29.25" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1810,7 +1482,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
     </row>
-    <row r="74" ht="29.25" customHeight="1">
+    <row r="74" spans="1:19" ht="29.25" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1822,7 +1494,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
     </row>
-    <row r="75" ht="29.25" customHeight="1">
+    <row r="75" spans="1:19" ht="29.25" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1834,7 +1506,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
     </row>
-    <row r="76" ht="29.25" customHeight="1">
+    <row r="76" spans="1:19" ht="29.25" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1846,7 +1518,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
     </row>
-    <row r="77" ht="29.25" customHeight="1">
+    <row r="77" spans="1:19" ht="29.25" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1858,7 +1530,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
     </row>
-    <row r="78" ht="29.25" customHeight="1">
+    <row r="78" spans="1:19" ht="29.25" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1870,7 +1542,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
     </row>
-    <row r="79" ht="29.25" customHeight="1">
+    <row r="79" spans="1:19" ht="29.25" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1882,7 +1554,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
     </row>
-    <row r="80" ht="29.25" customHeight="1">
+    <row r="80" spans="1:19" ht="29.25" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1894,7 +1566,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
     </row>
-    <row r="81" ht="29.25" customHeight="1">
+    <row r="81" spans="1:19" ht="29.25" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1906,7 +1578,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
     </row>
-    <row r="82" ht="29.25" customHeight="1">
+    <row r="82" spans="1:19" ht="29.25" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1918,7 +1590,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
     </row>
-    <row r="83" ht="29.25" customHeight="1">
+    <row r="83" spans="1:19" ht="29.25" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1930,7 +1602,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
     </row>
-    <row r="84" ht="29.25" customHeight="1">
+    <row r="84" spans="1:19" ht="29.25" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1942,7 +1614,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
     </row>
-    <row r="85" ht="29.25" customHeight="1">
+    <row r="85" spans="1:19" ht="29.25" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1954,7 +1626,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
     </row>
-    <row r="86" ht="29.25" customHeight="1">
+    <row r="86" spans="1:19" ht="29.25" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1966,7 +1638,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
     </row>
-    <row r="87" ht="29.25" customHeight="1">
+    <row r="87" spans="1:19" ht="29.25" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1978,7 +1650,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
     </row>
-    <row r="88" ht="29.25" customHeight="1">
+    <row r="88" spans="1:19" ht="29.25" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1990,7 +1662,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
     </row>
-    <row r="89" ht="29.25" customHeight="1">
+    <row r="89" spans="1:19" ht="29.25" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2002,7 +1674,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
     </row>
-    <row r="90" ht="29.25" customHeight="1">
+    <row r="90" spans="1:19" ht="29.25" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -2014,7 +1686,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
     </row>
-    <row r="91" ht="29.25" customHeight="1">
+    <row r="91" spans="1:19" ht="29.25" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -2026,7 +1698,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
     </row>
-    <row r="92" ht="29.25" customHeight="1">
+    <row r="92" spans="1:19" ht="29.25" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -2038,7 +1710,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
     </row>
-    <row r="93" ht="29.25" customHeight="1">
+    <row r="93" spans="1:19" ht="29.25" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -2050,7 +1722,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
     </row>
-    <row r="94" ht="29.25" customHeight="1">
+    <row r="94" spans="1:19" ht="29.25" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -2062,7 +1734,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
     </row>
-    <row r="95" ht="29.25" customHeight="1">
+    <row r="95" spans="1:19" ht="29.25" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2074,7 +1746,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
     </row>
-    <row r="96" ht="29.25" customHeight="1">
+    <row r="96" spans="1:19" ht="29.25" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2086,7 +1758,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
     </row>
-    <row r="97" ht="29.25" customHeight="1">
+    <row r="97" spans="1:19" ht="29.25" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2098,7 +1770,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
     </row>
-    <row r="98" ht="29.25" customHeight="1">
+    <row r="98" spans="1:19" ht="29.25" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2110,7 +1782,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
     </row>
-    <row r="99" ht="29.25" customHeight="1">
+    <row r="99" spans="1:19" ht="29.25" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2122,7 +1794,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
     </row>
-    <row r="100" ht="29.25" customHeight="1">
+    <row r="100" spans="1:19" ht="29.25" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2134,7 +1806,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
     </row>
-    <row r="101" ht="29.25" customHeight="1">
+    <row r="101" spans="1:19" ht="29.25" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2146,7 +1818,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
     </row>
-    <row r="102" ht="29.25" customHeight="1">
+    <row r="102" spans="1:19" ht="29.25" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2158,7 +1830,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
     </row>
-    <row r="103" ht="29.25" customHeight="1">
+    <row r="103" spans="1:19" ht="29.25" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2170,7 +1842,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
     </row>
-    <row r="104" ht="29.25" customHeight="1">
+    <row r="104" spans="1:19" ht="29.25" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2182,7 +1854,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
     </row>
-    <row r="105" ht="29.25" customHeight="1">
+    <row r="105" spans="1:19" ht="29.25" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2194,7 +1866,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
     </row>
-    <row r="106" ht="29.25" customHeight="1">
+    <row r="106" spans="1:19" ht="29.25" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2206,7 +1878,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
     </row>
-    <row r="107" ht="29.25" customHeight="1">
+    <row r="107" spans="1:19" ht="29.25" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2218,7 +1890,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
     </row>
-    <row r="108" ht="29.25" customHeight="1">
+    <row r="108" spans="1:19" ht="29.25" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2230,7 +1902,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
     </row>
-    <row r="109" ht="29.25" customHeight="1">
+    <row r="109" spans="1:19" ht="29.25" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2242,7 +1914,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
     </row>
-    <row r="110" ht="29.25" customHeight="1">
+    <row r="110" spans="1:19" ht="29.25" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2254,7 +1926,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" ht="29.25" customHeight="1">
+    <row r="111" spans="1:19" ht="29.25" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2266,7 +1938,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" ht="29.25" customHeight="1">
+    <row r="112" spans="1:19" ht="29.25" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2278,7 +1950,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
     </row>
-    <row r="113" ht="29.25" customHeight="1">
+    <row r="113" spans="1:19" ht="29.25" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2290,7 +1962,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
     </row>
-    <row r="114" ht="29.25" customHeight="1">
+    <row r="114" spans="1:19" ht="29.25" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2302,7 +1974,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
     </row>
-    <row r="115" ht="29.25" customHeight="1">
+    <row r="115" spans="1:19" ht="29.25" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2314,7 +1986,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
     </row>
-    <row r="116" ht="29.25" customHeight="1">
+    <row r="116" spans="1:19" ht="29.25" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2326,7 +1998,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
     </row>
-    <row r="117" ht="29.25" customHeight="1">
+    <row r="117" spans="1:19" ht="29.25" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2338,7 +2010,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
     </row>
-    <row r="118" ht="29.25" customHeight="1">
+    <row r="118" spans="1:19" ht="29.25" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2350,7 +2022,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
     </row>
-    <row r="119" ht="29.25" customHeight="1">
+    <row r="119" spans="1:19" ht="29.25" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2362,7 +2034,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
     </row>
-    <row r="120" ht="29.25" customHeight="1">
+    <row r="120" spans="1:19" ht="29.25" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2374,7 +2046,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
     </row>
-    <row r="121" ht="29.25" customHeight="1">
+    <row r="121" spans="1:19" ht="29.25" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2386,7 +2058,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
     </row>
-    <row r="122" ht="29.25" customHeight="1">
+    <row r="122" spans="1:19" ht="29.25" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2398,7 +2070,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
     </row>
-    <row r="123" ht="29.25" customHeight="1">
+    <row r="123" spans="1:19" ht="29.25" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2410,7 +2082,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
     </row>
-    <row r="124" ht="29.25" customHeight="1">
+    <row r="124" spans="1:19" ht="29.25" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2422,7 +2094,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
     </row>
-    <row r="125" ht="29.25" customHeight="1">
+    <row r="125" spans="1:19" ht="29.25" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2434,7 +2106,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
     </row>
-    <row r="126" ht="29.25" customHeight="1">
+    <row r="126" spans="1:19" ht="29.25" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2446,7 +2118,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
     </row>
-    <row r="127" ht="29.25" customHeight="1">
+    <row r="127" spans="1:19" ht="29.25" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2458,7 +2130,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
     </row>
-    <row r="128" ht="29.25" customHeight="1">
+    <row r="128" spans="1:19" ht="29.25" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2470,7 +2142,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
     </row>
-    <row r="129" ht="29.25" customHeight="1">
+    <row r="129" spans="1:19" ht="29.25" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2482,7 +2154,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
     </row>
-    <row r="130" ht="29.25" customHeight="1">
+    <row r="130" spans="1:19" ht="29.25" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2494,7 +2166,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="7"/>
     </row>
-    <row r="131" ht="29.25" customHeight="1">
+    <row r="131" spans="1:19" ht="29.25" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2506,7 +2178,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
     </row>
-    <row r="132" ht="29.25" customHeight="1">
+    <row r="132" spans="1:19" ht="29.25" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2518,7 +2190,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
     </row>
-    <row r="133" ht="29.25" customHeight="1">
+    <row r="133" spans="1:19" ht="29.25" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2530,7 +2202,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
     </row>
-    <row r="134" ht="29.25" customHeight="1">
+    <row r="134" spans="1:19" ht="29.25" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2542,7 +2214,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
     </row>
-    <row r="135" ht="29.25" customHeight="1">
+    <row r="135" spans="1:19" ht="29.25" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2554,7 +2226,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="7"/>
     </row>
-    <row r="136" ht="29.25" customHeight="1">
+    <row r="136" spans="1:19" ht="29.25" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2566,7 +2238,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
     </row>
-    <row r="137" ht="29.25" customHeight="1">
+    <row r="137" spans="1:19" ht="29.25" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2578,7 +2250,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
     </row>
-    <row r="138" ht="29.25" customHeight="1">
+    <row r="138" spans="1:19" ht="29.25" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -2590,7 +2262,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
     </row>
-    <row r="139" ht="29.25" customHeight="1">
+    <row r="139" spans="1:19" ht="29.25" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -2602,7 +2274,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
     </row>
-    <row r="140" ht="29.25" customHeight="1">
+    <row r="140" spans="1:19" ht="29.25" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -2614,7 +2286,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
     </row>
-    <row r="141" ht="29.25" customHeight="1">
+    <row r="141" spans="1:19" ht="29.25" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -2626,7 +2298,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
     </row>
-    <row r="142" ht="29.25" customHeight="1">
+    <row r="142" spans="1:19" ht="29.25" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -2638,7 +2310,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
     </row>
-    <row r="143" ht="29.25" customHeight="1">
+    <row r="143" spans="1:19" ht="29.25" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -2650,7 +2322,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
     </row>
-    <row r="144" ht="29.25" customHeight="1">
+    <row r="144" spans="1:19" ht="29.25" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -2662,7 +2334,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
     </row>
-    <row r="145" ht="29.25" customHeight="1">
+    <row r="145" spans="1:19" ht="29.25" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -2674,7 +2346,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
     </row>
-    <row r="146" ht="29.25" customHeight="1">
+    <row r="146" spans="1:19" ht="29.25" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -2686,7 +2358,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
     </row>
-    <row r="147" ht="29.25" customHeight="1">
+    <row r="147" spans="1:19" ht="29.25" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -2698,7 +2370,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
     </row>
-    <row r="148" ht="29.25" customHeight="1">
+    <row r="148" spans="1:19" ht="29.25" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -2710,7 +2382,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
     </row>
-    <row r="149" ht="29.25" customHeight="1">
+    <row r="149" spans="1:19" ht="29.25" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -2722,7 +2394,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="7"/>
     </row>
-    <row r="150" ht="29.25" customHeight="1">
+    <row r="150" spans="1:19" ht="29.25" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -2734,7 +2406,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
     </row>
-    <row r="151" ht="29.25" customHeight="1">
+    <row r="151" spans="1:19" ht="29.25" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -2746,7 +2418,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
     </row>
-    <row r="152" ht="29.25" customHeight="1">
+    <row r="152" spans="1:19" ht="29.25" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -2758,7 +2430,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
     </row>
-    <row r="153" ht="29.25" customHeight="1">
+    <row r="153" spans="1:19" ht="29.25" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -2770,7 +2442,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
     </row>
-    <row r="154" ht="29.25" customHeight="1">
+    <row r="154" spans="1:19" ht="29.25" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -2782,7 +2454,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="7"/>
     </row>
-    <row r="155" ht="29.25" customHeight="1">
+    <row r="155" spans="1:19" ht="29.25" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -2794,7 +2466,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
     </row>
-    <row r="156" ht="29.25" customHeight="1">
+    <row r="156" spans="1:19" ht="29.25" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -2806,7 +2478,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="7"/>
     </row>
-    <row r="157" ht="29.25" customHeight="1">
+    <row r="157" spans="1:19" ht="29.25" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -2818,7 +2490,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="7"/>
     </row>
-    <row r="158" ht="29.25" customHeight="1">
+    <row r="158" spans="1:19" ht="29.25" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -2830,7 +2502,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="7"/>
     </row>
-    <row r="159" ht="29.25" customHeight="1">
+    <row r="159" spans="1:19" ht="29.25" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -2842,7 +2514,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="7"/>
     </row>
-    <row r="160" ht="29.25" customHeight="1">
+    <row r="160" spans="1:19" ht="29.25" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -2854,7 +2526,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="7"/>
     </row>
-    <row r="161" ht="29.25" customHeight="1">
+    <row r="161" spans="1:19" ht="29.25" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -2866,7 +2538,7 @@
       <c r="R161" s="7"/>
       <c r="S161" s="7"/>
     </row>
-    <row r="162" ht="29.25" customHeight="1">
+    <row r="162" spans="1:19" ht="29.25" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -2878,7 +2550,7 @@
       <c r="R162" s="7"/>
       <c r="S162" s="7"/>
     </row>
-    <row r="163" ht="29.25" customHeight="1">
+    <row r="163" spans="1:19" ht="29.25" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -2890,7 +2562,7 @@
       <c r="R163" s="7"/>
       <c r="S163" s="7"/>
     </row>
-    <row r="164" ht="29.25" customHeight="1">
+    <row r="164" spans="1:19" ht="29.25" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -2902,7 +2574,7 @@
       <c r="R164" s="7"/>
       <c r="S164" s="7"/>
     </row>
-    <row r="165" ht="29.25" customHeight="1">
+    <row r="165" spans="1:19" ht="29.25" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -2914,7 +2586,7 @@
       <c r="R165" s="7"/>
       <c r="S165" s="7"/>
     </row>
-    <row r="166" ht="29.25" customHeight="1">
+    <row r="166" spans="1:19" ht="29.25" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -2926,7 +2598,7 @@
       <c r="R166" s="7"/>
       <c r="S166" s="7"/>
     </row>
-    <row r="167" ht="29.25" customHeight="1">
+    <row r="167" spans="1:19" ht="29.25" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -2938,7 +2610,7 @@
       <c r="R167" s="7"/>
       <c r="S167" s="7"/>
     </row>
-    <row r="168" ht="29.25" customHeight="1">
+    <row r="168" spans="1:19" ht="29.25" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -2950,7 +2622,7 @@
       <c r="R168" s="7"/>
       <c r="S168" s="7"/>
     </row>
-    <row r="169" ht="29.25" customHeight="1">
+    <row r="169" spans="1:19" ht="29.25" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -2962,7 +2634,7 @@
       <c r="R169" s="7"/>
       <c r="S169" s="7"/>
     </row>
-    <row r="170" ht="29.25" customHeight="1">
+    <row r="170" spans="1:19" ht="29.25" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -2974,7 +2646,7 @@
       <c r="R170" s="7"/>
       <c r="S170" s="7"/>
     </row>
-    <row r="171" ht="29.25" customHeight="1">
+    <row r="171" spans="1:19" ht="29.25" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -2986,7 +2658,7 @@
       <c r="R171" s="7"/>
       <c r="S171" s="7"/>
     </row>
-    <row r="172" ht="29.25" customHeight="1">
+    <row r="172" spans="1:19" ht="29.25" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -2998,7 +2670,7 @@
       <c r="R172" s="7"/>
       <c r="S172" s="7"/>
     </row>
-    <row r="173" ht="29.25" customHeight="1">
+    <row r="173" spans="1:19" ht="29.25" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -3010,7 +2682,7 @@
       <c r="R173" s="7"/>
       <c r="S173" s="7"/>
     </row>
-    <row r="174" ht="29.25" customHeight="1">
+    <row r="174" spans="1:19" ht="29.25" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -3022,7 +2694,7 @@
       <c r="R174" s="7"/>
       <c r="S174" s="7"/>
     </row>
-    <row r="175" ht="29.25" customHeight="1">
+    <row r="175" spans="1:19" ht="29.25" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -3034,7 +2706,7 @@
       <c r="R175" s="7"/>
       <c r="S175" s="7"/>
     </row>
-    <row r="176" ht="29.25" customHeight="1">
+    <row r="176" spans="1:19" ht="29.25" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -3046,7 +2718,7 @@
       <c r="R176" s="7"/>
       <c r="S176" s="7"/>
     </row>
-    <row r="177" ht="29.25" customHeight="1">
+    <row r="177" spans="1:19" ht="29.25" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -3058,7 +2730,7 @@
       <c r="R177" s="7"/>
       <c r="S177" s="7"/>
     </row>
-    <row r="178" ht="29.25" customHeight="1">
+    <row r="178" spans="1:19" ht="29.25" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -3070,7 +2742,7 @@
       <c r="R178" s="7"/>
       <c r="S178" s="7"/>
     </row>
-    <row r="179" ht="29.25" customHeight="1">
+    <row r="179" spans="1:19" ht="29.25" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -3082,7 +2754,7 @@
       <c r="R179" s="7"/>
       <c r="S179" s="7"/>
     </row>
-    <row r="180" ht="29.25" customHeight="1">
+    <row r="180" spans="1:19" ht="29.25" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -3094,7 +2766,7 @@
       <c r="R180" s="7"/>
       <c r="S180" s="7"/>
     </row>
-    <row r="181" ht="29.25" customHeight="1">
+    <row r="181" spans="1:19" ht="29.25" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -3106,7 +2778,7 @@
       <c r="R181" s="7"/>
       <c r="S181" s="7"/>
     </row>
-    <row r="182" ht="29.25" customHeight="1">
+    <row r="182" spans="1:19" ht="29.25" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -3118,7 +2790,7 @@
       <c r="R182" s="7"/>
       <c r="S182" s="7"/>
     </row>
-    <row r="183" ht="29.25" customHeight="1">
+    <row r="183" spans="1:19" ht="29.25" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -3130,7 +2802,7 @@
       <c r="R183" s="7"/>
       <c r="S183" s="7"/>
     </row>
-    <row r="184" ht="29.25" customHeight="1">
+    <row r="184" spans="1:19" ht="29.25" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -3142,7 +2814,7 @@
       <c r="R184" s="7"/>
       <c r="S184" s="7"/>
     </row>
-    <row r="185" ht="29.25" customHeight="1">
+    <row r="185" spans="1:19" ht="29.25" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -3154,7 +2826,7 @@
       <c r="R185" s="7"/>
       <c r="S185" s="7"/>
     </row>
-    <row r="186" ht="29.25" customHeight="1">
+    <row r="186" spans="1:19" ht="29.25" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -3166,7 +2838,7 @@
       <c r="R186" s="7"/>
       <c r="S186" s="7"/>
     </row>
-    <row r="187" ht="29.25" customHeight="1">
+    <row r="187" spans="1:19" ht="29.25" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -3178,7 +2850,7 @@
       <c r="R187" s="7"/>
       <c r="S187" s="7"/>
     </row>
-    <row r="188" ht="29.25" customHeight="1">
+    <row r="188" spans="1:19" ht="29.25" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -3190,7 +2862,7 @@
       <c r="R188" s="7"/>
       <c r="S188" s="7"/>
     </row>
-    <row r="189" ht="29.25" customHeight="1">
+    <row r="189" spans="1:19" ht="29.25" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -3202,7 +2874,7 @@
       <c r="R189" s="7"/>
       <c r="S189" s="7"/>
     </row>
-    <row r="190" ht="29.25" customHeight="1">
+    <row r="190" spans="1:19" ht="29.25" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -3214,7 +2886,7 @@
       <c r="R190" s="7"/>
       <c r="S190" s="7"/>
     </row>
-    <row r="191" ht="29.25" customHeight="1">
+    <row r="191" spans="1:19" ht="29.25" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -3226,7 +2898,7 @@
       <c r="R191" s="7"/>
       <c r="S191" s="7"/>
     </row>
-    <row r="192" ht="29.25" customHeight="1">
+    <row r="192" spans="1:19" ht="29.25" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -3238,7 +2910,7 @@
       <c r="R192" s="7"/>
       <c r="S192" s="7"/>
     </row>
-    <row r="193" ht="29.25" customHeight="1">
+    <row r="193" spans="1:19" ht="29.25" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -3250,7 +2922,7 @@
       <c r="R193" s="7"/>
       <c r="S193" s="7"/>
     </row>
-    <row r="194" ht="29.25" customHeight="1">
+    <row r="194" spans="1:19" ht="29.25" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -3262,7 +2934,7 @@
       <c r="R194" s="7"/>
       <c r="S194" s="7"/>
     </row>
-    <row r="195" ht="29.25" customHeight="1">
+    <row r="195" spans="1:19" ht="29.25" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -3274,7 +2946,7 @@
       <c r="R195" s="7"/>
       <c r="S195" s="7"/>
     </row>
-    <row r="196" ht="29.25" customHeight="1">
+    <row r="196" spans="1:19" ht="29.25" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -3286,7 +2958,7 @@
       <c r="R196" s="7"/>
       <c r="S196" s="7"/>
     </row>
-    <row r="197" ht="29.25" customHeight="1">
+    <row r="197" spans="1:19" ht="29.25" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -3298,7 +2970,7 @@
       <c r="R197" s="7"/>
       <c r="S197" s="7"/>
     </row>
-    <row r="198" ht="29.25" customHeight="1">
+    <row r="198" spans="1:19" ht="29.25" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -3310,7 +2982,7 @@
       <c r="R198" s="7"/>
       <c r="S198" s="7"/>
     </row>
-    <row r="199" ht="29.25" customHeight="1">
+    <row r="199" spans="1:19" ht="29.25" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -3322,7 +2994,7 @@
       <c r="R199" s="7"/>
       <c r="S199" s="7"/>
     </row>
-    <row r="200" ht="29.25" customHeight="1">
+    <row r="200" spans="1:19" ht="29.25" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -3334,7 +3006,7 @@
       <c r="R200" s="7"/>
       <c r="S200" s="7"/>
     </row>
-    <row r="201" ht="29.25" customHeight="1">
+    <row r="201" spans="1:19" ht="29.25" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -3346,7 +3018,7 @@
       <c r="R201" s="7"/>
       <c r="S201" s="7"/>
     </row>
-    <row r="202" ht="29.25" customHeight="1">
+    <row r="202" spans="1:19" ht="29.25" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -3358,2181 +3030,2180 @@
       <c r="R202" s="7"/>
       <c r="S202" s="7"/>
     </row>
-    <row r="203" ht="15.75" customHeight="1">
+    <row r="203" spans="1:19" ht="15.75" customHeight="1">
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" ht="15.75" customHeight="1">
+    <row r="204" spans="1:19" ht="15.75" customHeight="1">
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" ht="15.75" customHeight="1">
+    <row r="205" spans="1:19" ht="15.75" customHeight="1">
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" ht="15.75" customHeight="1">
+    <row r="206" spans="1:19" ht="15.75" customHeight="1">
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" ht="15.75" customHeight="1">
+    <row r="207" spans="1:19" ht="15.75" customHeight="1">
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" ht="15.75" customHeight="1">
+    <row r="208" spans="1:19" ht="15.75" customHeight="1">
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
     </row>
-    <row r="209" ht="15.75" customHeight="1">
+    <row r="209" spans="6:7" ht="15.75" customHeight="1">
       <c r="F209" s="9"/>
       <c r="G209" s="9"/>
     </row>
-    <row r="210" ht="15.75" customHeight="1">
+    <row r="210" spans="6:7" ht="15.75" customHeight="1">
       <c r="F210" s="9"/>
       <c r="G210" s="9"/>
     </row>
-    <row r="211" ht="15.75" customHeight="1">
+    <row r="211" spans="6:7" ht="15.75" customHeight="1">
       <c r="F211" s="9"/>
       <c r="G211" s="9"/>
     </row>
-    <row r="212" ht="15.75" customHeight="1">
+    <row r="212" spans="6:7" ht="15.75" customHeight="1">
       <c r="F212" s="9"/>
       <c r="G212" s="9"/>
     </row>
-    <row r="213" ht="15.75" customHeight="1">
+    <row r="213" spans="6:7" ht="15.75" customHeight="1">
       <c r="F213" s="9"/>
       <c r="G213" s="9"/>
     </row>
-    <row r="214" ht="15.75" customHeight="1">
+    <row r="214" spans="6:7" ht="15.75" customHeight="1">
       <c r="F214" s="9"/>
       <c r="G214" s="9"/>
     </row>
-    <row r="215" ht="15.75" customHeight="1">
+    <row r="215" spans="6:7" ht="15.75" customHeight="1">
       <c r="F215" s="9"/>
       <c r="G215" s="9"/>
     </row>
-    <row r="216" ht="15.75" customHeight="1">
+    <row r="216" spans="6:7" ht="15.75" customHeight="1">
       <c r="F216" s="9"/>
       <c r="G216" s="9"/>
     </row>
-    <row r="217" ht="15.75" customHeight="1">
+    <row r="217" spans="6:7" ht="15.75" customHeight="1">
       <c r="F217" s="9"/>
       <c r="G217" s="9"/>
     </row>
-    <row r="218" ht="15.75" customHeight="1">
+    <row r="218" spans="6:7" ht="15.75" customHeight="1">
       <c r="F218" s="9"/>
       <c r="G218" s="9"/>
     </row>
-    <row r="219" ht="15.75" customHeight="1">
+    <row r="219" spans="6:7" ht="15.75" customHeight="1">
       <c r="F219" s="9"/>
       <c r="G219" s="9"/>
     </row>
-    <row r="220" ht="15.75" customHeight="1">
+    <row r="220" spans="6:7" ht="15.75" customHeight="1">
       <c r="F220" s="9"/>
       <c r="G220" s="9"/>
     </row>
-    <row r="221" ht="15.75" customHeight="1">
+    <row r="221" spans="6:7" ht="15.75" customHeight="1">
       <c r="F221" s="9"/>
       <c r="G221" s="9"/>
     </row>
-    <row r="222" ht="15.75" customHeight="1">
+    <row r="222" spans="6:7" ht="15.75" customHeight="1">
       <c r="F222" s="9"/>
       <c r="G222" s="9"/>
     </row>
-    <row r="223" ht="15.75" customHeight="1">
+    <row r="223" spans="6:7" ht="15.75" customHeight="1">
       <c r="F223" s="9"/>
       <c r="G223" s="9"/>
     </row>
-    <row r="224" ht="15.75" customHeight="1">
+    <row r="224" spans="6:7" ht="15.75" customHeight="1">
       <c r="F224" s="9"/>
       <c r="G224" s="9"/>
     </row>
-    <row r="225" ht="15.75" customHeight="1">
+    <row r="225" spans="6:7" ht="15.75" customHeight="1">
       <c r="F225" s="9"/>
       <c r="G225" s="9"/>
     </row>
-    <row r="226" ht="15.75" customHeight="1">
+    <row r="226" spans="6:7" ht="15.75" customHeight="1">
       <c r="F226" s="9"/>
       <c r="G226" s="9"/>
     </row>
-    <row r="227" ht="15.75" customHeight="1">
+    <row r="227" spans="6:7" ht="15.75" customHeight="1">
       <c r="F227" s="9"/>
       <c r="G227" s="9"/>
     </row>
-    <row r="228" ht="15.75" customHeight="1">
+    <row r="228" spans="6:7" ht="15.75" customHeight="1">
       <c r="F228" s="9"/>
       <c r="G228" s="9"/>
     </row>
-    <row r="229" ht="15.75" customHeight="1">
+    <row r="229" spans="6:7" ht="15.75" customHeight="1">
       <c r="F229" s="9"/>
       <c r="G229" s="9"/>
     </row>
-    <row r="230" ht="15.75" customHeight="1">
+    <row r="230" spans="6:7" ht="15.75" customHeight="1">
       <c r="F230" s="9"/>
       <c r="G230" s="9"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" spans="6:7" ht="15.75" customHeight="1">
       <c r="F231" s="9"/>
       <c r="G231" s="9"/>
     </row>
-    <row r="232" ht="15.75" customHeight="1">
+    <row r="232" spans="6:7" ht="15.75" customHeight="1">
       <c r="F232" s="9"/>
       <c r="G232" s="9"/>
     </row>
-    <row r="233" ht="15.75" customHeight="1">
+    <row r="233" spans="6:7" ht="15.75" customHeight="1">
       <c r="F233" s="9"/>
       <c r="G233" s="9"/>
     </row>
-    <row r="234" ht="15.75" customHeight="1">
+    <row r="234" spans="6:7" ht="15.75" customHeight="1">
       <c r="F234" s="9"/>
       <c r="G234" s="9"/>
     </row>
-    <row r="235" ht="15.75" customHeight="1">
+    <row r="235" spans="6:7" ht="15.75" customHeight="1">
       <c r="F235" s="9"/>
       <c r="G235" s="9"/>
     </row>
-    <row r="236" ht="15.75" customHeight="1">
+    <row r="236" spans="6:7" ht="15.75" customHeight="1">
       <c r="F236" s="9"/>
       <c r="G236" s="9"/>
     </row>
-    <row r="237" ht="15.75" customHeight="1">
+    <row r="237" spans="6:7" ht="15.75" customHeight="1">
       <c r="F237" s="9"/>
       <c r="G237" s="9"/>
     </row>
-    <row r="238" ht="15.75" customHeight="1">
+    <row r="238" spans="6:7" ht="15.75" customHeight="1">
       <c r="F238" s="9"/>
       <c r="G238" s="9"/>
     </row>
-    <row r="239" ht="15.75" customHeight="1">
+    <row r="239" spans="6:7" ht="15.75" customHeight="1">
       <c r="F239" s="9"/>
       <c r="G239" s="9"/>
     </row>
-    <row r="240" ht="15.75" customHeight="1">
+    <row r="240" spans="6:7" ht="15.75" customHeight="1">
       <c r="F240" s="9"/>
       <c r="G240" s="9"/>
     </row>
-    <row r="241" ht="15.75" customHeight="1">
+    <row r="241" spans="6:7" ht="15.75" customHeight="1">
       <c r="F241" s="9"/>
       <c r="G241" s="9"/>
     </row>
-    <row r="242" ht="15.75" customHeight="1">
+    <row r="242" spans="6:7" ht="15.75" customHeight="1">
       <c r="F242" s="9"/>
       <c r="G242" s="9"/>
     </row>
-    <row r="243" ht="15.75" customHeight="1">
+    <row r="243" spans="6:7" ht="15.75" customHeight="1">
       <c r="F243" s="9"/>
       <c r="G243" s="9"/>
     </row>
-    <row r="244" ht="15.75" customHeight="1">
+    <row r="244" spans="6:7" ht="15.75" customHeight="1">
       <c r="F244" s="9"/>
       <c r="G244" s="9"/>
     </row>
-    <row r="245" ht="15.75" customHeight="1">
+    <row r="245" spans="6:7" ht="15.75" customHeight="1">
       <c r="F245" s="9"/>
       <c r="G245" s="9"/>
     </row>
-    <row r="246" ht="15.75" customHeight="1">
+    <row r="246" spans="6:7" ht="15.75" customHeight="1">
       <c r="F246" s="9"/>
       <c r="G246" s="9"/>
     </row>
-    <row r="247" ht="15.75" customHeight="1">
+    <row r="247" spans="6:7" ht="15.75" customHeight="1">
       <c r="F247" s="9"/>
       <c r="G247" s="9"/>
     </row>
-    <row r="248" ht="15.75" customHeight="1">
+    <row r="248" spans="6:7" ht="15.75" customHeight="1">
       <c r="F248" s="9"/>
       <c r="G248" s="9"/>
     </row>
-    <row r="249" ht="15.75" customHeight="1">
+    <row r="249" spans="6:7" ht="15.75" customHeight="1">
       <c r="F249" s="9"/>
       <c r="G249" s="9"/>
     </row>
-    <row r="250" ht="15.75" customHeight="1">
+    <row r="250" spans="6:7" ht="15.75" customHeight="1">
       <c r="F250" s="9"/>
       <c r="G250" s="9"/>
     </row>
-    <row r="251" ht="15.75" customHeight="1">
+    <row r="251" spans="6:7" ht="15.75" customHeight="1">
       <c r="F251" s="9"/>
       <c r="G251" s="9"/>
     </row>
-    <row r="252" ht="15.75" customHeight="1">
+    <row r="252" spans="6:7" ht="15.75" customHeight="1">
       <c r="F252" s="9"/>
       <c r="G252" s="9"/>
     </row>
-    <row r="253" ht="15.75" customHeight="1">
+    <row r="253" spans="6:7" ht="15.75" customHeight="1">
       <c r="F253" s="9"/>
       <c r="G253" s="9"/>
     </row>
-    <row r="254" ht="15.75" customHeight="1">
+    <row r="254" spans="6:7" ht="15.75" customHeight="1">
       <c r="F254" s="9"/>
       <c r="G254" s="9"/>
     </row>
-    <row r="255" ht="15.75" customHeight="1">
+    <row r="255" spans="6:7" ht="15.75" customHeight="1">
       <c r="F255" s="9"/>
       <c r="G255" s="9"/>
     </row>
-    <row r="256" ht="15.75" customHeight="1">
+    <row r="256" spans="6:7" ht="15.75" customHeight="1">
       <c r="F256" s="9"/>
       <c r="G256" s="9"/>
     </row>
-    <row r="257" ht="15.75" customHeight="1">
+    <row r="257" spans="6:7" ht="15.75" customHeight="1">
       <c r="F257" s="9"/>
       <c r="G257" s="9"/>
     </row>
-    <row r="258" ht="15.75" customHeight="1">
+    <row r="258" spans="6:7" ht="15.75" customHeight="1">
       <c r="F258" s="9"/>
       <c r="G258" s="9"/>
     </row>
-    <row r="259" ht="15.75" customHeight="1">
+    <row r="259" spans="6:7" ht="15.75" customHeight="1">
       <c r="F259" s="9"/>
       <c r="G259" s="9"/>
     </row>
-    <row r="260" ht="15.75" customHeight="1">
+    <row r="260" spans="6:7" ht="15.75" customHeight="1">
       <c r="F260" s="9"/>
       <c r="G260" s="9"/>
     </row>
-    <row r="261" ht="15.75" customHeight="1">
+    <row r="261" spans="6:7" ht="15.75" customHeight="1">
       <c r="F261" s="9"/>
       <c r="G261" s="9"/>
     </row>
-    <row r="262" ht="15.75" customHeight="1">
+    <row r="262" spans="6:7" ht="15.75" customHeight="1">
       <c r="F262" s="9"/>
       <c r="G262" s="9"/>
     </row>
-    <row r="263" ht="15.75" customHeight="1">
+    <row r="263" spans="6:7" ht="15.75" customHeight="1">
       <c r="F263" s="9"/>
       <c r="G263" s="9"/>
     </row>
-    <row r="264" ht="15.75" customHeight="1">
+    <row r="264" spans="6:7" ht="15.75" customHeight="1">
       <c r="F264" s="9"/>
       <c r="G264" s="9"/>
     </row>
-    <row r="265" ht="15.75" customHeight="1">
+    <row r="265" spans="6:7" ht="15.75" customHeight="1">
       <c r="F265" s="9"/>
       <c r="G265" s="9"/>
     </row>
-    <row r="266" ht="15.75" customHeight="1">
+    <row r="266" spans="6:7" ht="15.75" customHeight="1">
       <c r="F266" s="9"/>
       <c r="G266" s="9"/>
     </row>
-    <row r="267" ht="15.75" customHeight="1">
+    <row r="267" spans="6:7" ht="15.75" customHeight="1">
       <c r="F267" s="9"/>
       <c r="G267" s="9"/>
     </row>
-    <row r="268" ht="15.75" customHeight="1">
+    <row r="268" spans="6:7" ht="15.75" customHeight="1">
       <c r="F268" s="9"/>
       <c r="G268" s="9"/>
     </row>
-    <row r="269" ht="15.75" customHeight="1">
+    <row r="269" spans="6:7" ht="15.75" customHeight="1">
       <c r="F269" s="9"/>
       <c r="G269" s="9"/>
     </row>
-    <row r="270" ht="15.75" customHeight="1">
+    <row r="270" spans="6:7" ht="15.75" customHeight="1">
       <c r="F270" s="9"/>
       <c r="G270" s="9"/>
     </row>
-    <row r="271" ht="15.75" customHeight="1">
+    <row r="271" spans="6:7" ht="15.75" customHeight="1">
       <c r="F271" s="9"/>
       <c r="G271" s="9"/>
     </row>
-    <row r="272" ht="15.75" customHeight="1">
+    <row r="272" spans="6:7" ht="15.75" customHeight="1">
       <c r="F272" s="9"/>
       <c r="G272" s="9"/>
     </row>
-    <row r="273" ht="15.75" customHeight="1">
+    <row r="273" spans="6:7" ht="15.75" customHeight="1">
       <c r="F273" s="9"/>
       <c r="G273" s="9"/>
     </row>
-    <row r="274" ht="15.75" customHeight="1">
+    <row r="274" spans="6:7" ht="15.75" customHeight="1">
       <c r="F274" s="9"/>
       <c r="G274" s="9"/>
     </row>
-    <row r="275" ht="15.75" customHeight="1">
+    <row r="275" spans="6:7" ht="15.75" customHeight="1">
       <c r="F275" s="9"/>
       <c r="G275" s="9"/>
     </row>
-    <row r="276" ht="15.75" customHeight="1">
+    <row r="276" spans="6:7" ht="15.75" customHeight="1">
       <c r="F276" s="9"/>
       <c r="G276" s="9"/>
     </row>
-    <row r="277" ht="15.75" customHeight="1">
+    <row r="277" spans="6:7" ht="15.75" customHeight="1">
       <c r="F277" s="9"/>
       <c r="G277" s="9"/>
     </row>
-    <row r="278" ht="15.75" customHeight="1">
+    <row r="278" spans="6:7" ht="15.75" customHeight="1">
       <c r="F278" s="9"/>
       <c r="G278" s="9"/>
     </row>
-    <row r="279" ht="15.75" customHeight="1">
+    <row r="279" spans="6:7" ht="15.75" customHeight="1">
       <c r="F279" s="9"/>
       <c r="G279" s="9"/>
     </row>
-    <row r="280" ht="15.75" customHeight="1">
+    <row r="280" spans="6:7" ht="15.75" customHeight="1">
       <c r="F280" s="9"/>
       <c r="G280" s="9"/>
     </row>
-    <row r="281" ht="15.75" customHeight="1">
+    <row r="281" spans="6:7" ht="15.75" customHeight="1">
       <c r="F281" s="9"/>
       <c r="G281" s="9"/>
     </row>
-    <row r="282" ht="15.75" customHeight="1">
+    <row r="282" spans="6:7" ht="15.75" customHeight="1">
       <c r="F282" s="9"/>
       <c r="G282" s="9"/>
     </row>
-    <row r="283" ht="15.75" customHeight="1">
+    <row r="283" spans="6:7" ht="15.75" customHeight="1">
       <c r="F283" s="9"/>
       <c r="G283" s="9"/>
     </row>
-    <row r="284" ht="15.75" customHeight="1">
+    <row r="284" spans="6:7" ht="15.75" customHeight="1">
       <c r="F284" s="9"/>
       <c r="G284" s="9"/>
     </row>
-    <row r="285" ht="15.75" customHeight="1">
+    <row r="285" spans="6:7" ht="15.75" customHeight="1">
       <c r="F285" s="9"/>
       <c r="G285" s="9"/>
     </row>
-    <row r="286" ht="15.75" customHeight="1">
+    <row r="286" spans="6:7" ht="15.75" customHeight="1">
       <c r="F286" s="9"/>
       <c r="G286" s="9"/>
     </row>
-    <row r="287" ht="15.75" customHeight="1">
+    <row r="287" spans="6:7" ht="15.75" customHeight="1">
       <c r="F287" s="9"/>
       <c r="G287" s="9"/>
     </row>
-    <row r="288" ht="15.75" customHeight="1">
+    <row r="288" spans="6:7" ht="15.75" customHeight="1">
       <c r="F288" s="9"/>
       <c r="G288" s="9"/>
     </row>
-    <row r="289" ht="15.75" customHeight="1">
+    <row r="289" spans="6:7" ht="15.75" customHeight="1">
       <c r="F289" s="9"/>
       <c r="G289" s="9"/>
     </row>
-    <row r="290" ht="15.75" customHeight="1">
+    <row r="290" spans="6:7" ht="15.75" customHeight="1">
       <c r="F290" s="9"/>
       <c r="G290" s="9"/>
     </row>
-    <row r="291" ht="15.75" customHeight="1">
+    <row r="291" spans="6:7" ht="15.75" customHeight="1">
       <c r="F291" s="9"/>
       <c r="G291" s="9"/>
     </row>
-    <row r="292" ht="15.75" customHeight="1">
+    <row r="292" spans="6:7" ht="15.75" customHeight="1">
       <c r="F292" s="9"/>
       <c r="G292" s="9"/>
     </row>
-    <row r="293" ht="15.75" customHeight="1">
+    <row r="293" spans="6:7" ht="15.75" customHeight="1">
       <c r="F293" s="9"/>
       <c r="G293" s="9"/>
     </row>
-    <row r="294" ht="15.75" customHeight="1">
+    <row r="294" spans="6:7" ht="15.75" customHeight="1">
       <c r="F294" s="9"/>
       <c r="G294" s="9"/>
     </row>
-    <row r="295" ht="15.75" customHeight="1">
+    <row r="295" spans="6:7" ht="15.75" customHeight="1">
       <c r="F295" s="9"/>
       <c r="G295" s="9"/>
     </row>
-    <row r="296" ht="15.75" customHeight="1">
+    <row r="296" spans="6:7" ht="15.75" customHeight="1">
       <c r="F296" s="9"/>
       <c r="G296" s="9"/>
     </row>
-    <row r="297" ht="15.75" customHeight="1">
+    <row r="297" spans="6:7" ht="15.75" customHeight="1">
       <c r="F297" s="9"/>
       <c r="G297" s="9"/>
     </row>
-    <row r="298" ht="15.75" customHeight="1">
+    <row r="298" spans="6:7" ht="15.75" customHeight="1">
       <c r="F298" s="9"/>
       <c r="G298" s="9"/>
     </row>
-    <row r="299" ht="15.75" customHeight="1">
+    <row r="299" spans="6:7" ht="15.75" customHeight="1">
       <c r="F299" s="9"/>
       <c r="G299" s="9"/>
     </row>
-    <row r="300" ht="15.75" customHeight="1">
+    <row r="300" spans="6:7" ht="15.75" customHeight="1">
       <c r="F300" s="9"/>
       <c r="G300" s="9"/>
     </row>
-    <row r="301" ht="15.75" customHeight="1">
+    <row r="301" spans="6:7" ht="15.75" customHeight="1">
       <c r="F301" s="9"/>
       <c r="G301" s="9"/>
     </row>
-    <row r="302" ht="15.75" customHeight="1">
+    <row r="302" spans="6:7" ht="15.75" customHeight="1">
       <c r="F302" s="9"/>
       <c r="G302" s="9"/>
     </row>
-    <row r="303" ht="15.75" customHeight="1">
+    <row r="303" spans="6:7" ht="15.75" customHeight="1">
       <c r="F303" s="9"/>
       <c r="G303" s="9"/>
     </row>
-    <row r="304" ht="15.75" customHeight="1">
+    <row r="304" spans="6:7" ht="15.75" customHeight="1">
       <c r="F304" s="9"/>
       <c r="G304" s="9"/>
     </row>
-    <row r="305" ht="15.75" customHeight="1">
+    <row r="305" spans="6:7" ht="15.75" customHeight="1">
       <c r="F305" s="9"/>
       <c r="G305" s="9"/>
     </row>
-    <row r="306" ht="15.75" customHeight="1">
+    <row r="306" spans="6:7" ht="15.75" customHeight="1">
       <c r="F306" s="9"/>
       <c r="G306" s="9"/>
     </row>
-    <row r="307" ht="15.75" customHeight="1">
+    <row r="307" spans="6:7" ht="15.75" customHeight="1">
       <c r="F307" s="9"/>
       <c r="G307" s="9"/>
     </row>
-    <row r="308" ht="15.75" customHeight="1">
+    <row r="308" spans="6:7" ht="15.75" customHeight="1">
       <c r="F308" s="9"/>
       <c r="G308" s="9"/>
     </row>
-    <row r="309" ht="15.75" customHeight="1">
+    <row r="309" spans="6:7" ht="15.75" customHeight="1">
       <c r="F309" s="9"/>
       <c r="G309" s="9"/>
     </row>
-    <row r="310" ht="15.75" customHeight="1">
+    <row r="310" spans="6:7" ht="15.75" customHeight="1">
       <c r="F310" s="9"/>
       <c r="G310" s="9"/>
     </row>
-    <row r="311" ht="15.75" customHeight="1">
+    <row r="311" spans="6:7" ht="15.75" customHeight="1">
       <c r="F311" s="9"/>
       <c r="G311" s="9"/>
     </row>
-    <row r="312" ht="15.75" customHeight="1">
+    <row r="312" spans="6:7" ht="15.75" customHeight="1">
       <c r="F312" s="9"/>
       <c r="G312" s="9"/>
     </row>
-    <row r="313" ht="15.75" customHeight="1">
+    <row r="313" spans="6:7" ht="15.75" customHeight="1">
       <c r="F313" s="9"/>
       <c r="G313" s="9"/>
     </row>
-    <row r="314" ht="15.75" customHeight="1">
+    <row r="314" spans="6:7" ht="15.75" customHeight="1">
       <c r="F314" s="9"/>
       <c r="G314" s="9"/>
     </row>
-    <row r="315" ht="15.75" customHeight="1">
+    <row r="315" spans="6:7" ht="15.75" customHeight="1">
       <c r="F315" s="9"/>
       <c r="G315" s="9"/>
     </row>
-    <row r="316" ht="15.75" customHeight="1">
+    <row r="316" spans="6:7" ht="15.75" customHeight="1">
       <c r="F316" s="9"/>
       <c r="G316" s="9"/>
     </row>
-    <row r="317" ht="15.75" customHeight="1">
+    <row r="317" spans="6:7" ht="15.75" customHeight="1">
       <c r="F317" s="9"/>
       <c r="G317" s="9"/>
     </row>
-    <row r="318" ht="15.75" customHeight="1">
+    <row r="318" spans="6:7" ht="15.75" customHeight="1">
       <c r="F318" s="9"/>
       <c r="G318" s="9"/>
     </row>
-    <row r="319" ht="15.75" customHeight="1">
+    <row r="319" spans="6:7" ht="15.75" customHeight="1">
       <c r="F319" s="9"/>
       <c r="G319" s="9"/>
     </row>
-    <row r="320" ht="15.75" customHeight="1">
+    <row r="320" spans="6:7" ht="15.75" customHeight="1">
       <c r="F320" s="9"/>
       <c r="G320" s="9"/>
     </row>
-    <row r="321" ht="15.75" customHeight="1">
+    <row r="321" spans="6:7" ht="15.75" customHeight="1">
       <c r="F321" s="9"/>
       <c r="G321" s="9"/>
     </row>
-    <row r="322" ht="15.75" customHeight="1">
+    <row r="322" spans="6:7" ht="15.75" customHeight="1">
       <c r="F322" s="9"/>
       <c r="G322" s="9"/>
     </row>
-    <row r="323" ht="15.75" customHeight="1">
+    <row r="323" spans="6:7" ht="15.75" customHeight="1">
       <c r="F323" s="9"/>
       <c r="G323" s="9"/>
     </row>
-    <row r="324" ht="15.75" customHeight="1">
+    <row r="324" spans="6:7" ht="15.75" customHeight="1">
       <c r="F324" s="9"/>
       <c r="G324" s="9"/>
     </row>
-    <row r="325" ht="15.75" customHeight="1">
+    <row r="325" spans="6:7" ht="15.75" customHeight="1">
       <c r="F325" s="9"/>
       <c r="G325" s="9"/>
     </row>
-    <row r="326" ht="15.75" customHeight="1">
+    <row r="326" spans="6:7" ht="15.75" customHeight="1">
       <c r="F326" s="9"/>
       <c r="G326" s="9"/>
     </row>
-    <row r="327" ht="15.75" customHeight="1">
+    <row r="327" spans="6:7" ht="15.75" customHeight="1">
       <c r="F327" s="9"/>
       <c r="G327" s="9"/>
     </row>
-    <row r="328" ht="15.75" customHeight="1">
+    <row r="328" spans="6:7" ht="15.75" customHeight="1">
       <c r="F328" s="9"/>
       <c r="G328" s="9"/>
     </row>
-    <row r="329" ht="15.75" customHeight="1">
+    <row r="329" spans="6:7" ht="15.75" customHeight="1">
       <c r="F329" s="9"/>
       <c r="G329" s="9"/>
     </row>
-    <row r="330" ht="15.75" customHeight="1">
+    <row r="330" spans="6:7" ht="15.75" customHeight="1">
       <c r="F330" s="9"/>
       <c r="G330" s="9"/>
     </row>
-    <row r="331" ht="15.75" customHeight="1">
+    <row r="331" spans="6:7" ht="15.75" customHeight="1">
       <c r="F331" s="9"/>
       <c r="G331" s="9"/>
     </row>
-    <row r="332" ht="15.75" customHeight="1">
+    <row r="332" spans="6:7" ht="15.75" customHeight="1">
       <c r="F332" s="9"/>
       <c r="G332" s="9"/>
     </row>
-    <row r="333" ht="15.75" customHeight="1">
+    <row r="333" spans="6:7" ht="15.75" customHeight="1">
       <c r="F333" s="9"/>
       <c r="G333" s="9"/>
     </row>
-    <row r="334" ht="15.75" customHeight="1">
+    <row r="334" spans="6:7" ht="15.75" customHeight="1">
       <c r="F334" s="9"/>
       <c r="G334" s="9"/>
     </row>
-    <row r="335" ht="15.75" customHeight="1">
+    <row r="335" spans="6:7" ht="15.75" customHeight="1">
       <c r="F335" s="9"/>
       <c r="G335" s="9"/>
     </row>
-    <row r="336" ht="15.75" customHeight="1">
+    <row r="336" spans="6:7" ht="15.75" customHeight="1">
       <c r="F336" s="9"/>
       <c r="G336" s="9"/>
     </row>
-    <row r="337" ht="15.75" customHeight="1">
+    <row r="337" spans="6:7" ht="15.75" customHeight="1">
       <c r="F337" s="9"/>
       <c r="G337" s="9"/>
     </row>
-    <row r="338" ht="15.75" customHeight="1">
+    <row r="338" spans="6:7" ht="15.75" customHeight="1">
       <c r="F338" s="9"/>
       <c r="G338" s="9"/>
     </row>
-    <row r="339" ht="15.75" customHeight="1">
+    <row r="339" spans="6:7" ht="15.75" customHeight="1">
       <c r="F339" s="9"/>
       <c r="G339" s="9"/>
     </row>
-    <row r="340" ht="15.75" customHeight="1">
+    <row r="340" spans="6:7" ht="15.75" customHeight="1">
       <c r="F340" s="9"/>
       <c r="G340" s="9"/>
     </row>
-    <row r="341" ht="15.75" customHeight="1">
+    <row r="341" spans="6:7" ht="15.75" customHeight="1">
       <c r="F341" s="9"/>
       <c r="G341" s="9"/>
     </row>
-    <row r="342" ht="15.75" customHeight="1">
+    <row r="342" spans="6:7" ht="15.75" customHeight="1">
       <c r="F342" s="9"/>
       <c r="G342" s="9"/>
     </row>
-    <row r="343" ht="15.75" customHeight="1">
+    <row r="343" spans="6:7" ht="15.75" customHeight="1">
       <c r="F343" s="9"/>
       <c r="G343" s="9"/>
     </row>
-    <row r="344" ht="15.75" customHeight="1">
+    <row r="344" spans="6:7" ht="15.75" customHeight="1">
       <c r="F344" s="9"/>
       <c r="G344" s="9"/>
     </row>
-    <row r="345" ht="15.75" customHeight="1">
+    <row r="345" spans="6:7" ht="15.75" customHeight="1">
       <c r="F345" s="9"/>
       <c r="G345" s="9"/>
     </row>
-    <row r="346" ht="15.75" customHeight="1">
+    <row r="346" spans="6:7" ht="15.75" customHeight="1">
       <c r="F346" s="9"/>
       <c r="G346" s="9"/>
     </row>
-    <row r="347" ht="15.75" customHeight="1">
+    <row r="347" spans="6:7" ht="15.75" customHeight="1">
       <c r="F347" s="9"/>
       <c r="G347" s="9"/>
     </row>
-    <row r="348" ht="15.75" customHeight="1">
+    <row r="348" spans="6:7" ht="15.75" customHeight="1">
       <c r="F348" s="9"/>
       <c r="G348" s="9"/>
     </row>
-    <row r="349" ht="15.75" customHeight="1">
+    <row r="349" spans="6:7" ht="15.75" customHeight="1">
       <c r="F349" s="9"/>
       <c r="G349" s="9"/>
     </row>
-    <row r="350" ht="15.75" customHeight="1">
+    <row r="350" spans="6:7" ht="15.75" customHeight="1">
       <c r="F350" s="9"/>
       <c r="G350" s="9"/>
     </row>
-    <row r="351" ht="15.75" customHeight="1">
+    <row r="351" spans="6:7" ht="15.75" customHeight="1">
       <c r="F351" s="9"/>
       <c r="G351" s="9"/>
     </row>
-    <row r="352" ht="15.75" customHeight="1">
+    <row r="352" spans="6:7" ht="15.75" customHeight="1">
       <c r="F352" s="9"/>
       <c r="G352" s="9"/>
     </row>
-    <row r="353" ht="15.75" customHeight="1">
+    <row r="353" spans="6:7" ht="15.75" customHeight="1">
       <c r="F353" s="9"/>
       <c r="G353" s="9"/>
     </row>
-    <row r="354" ht="15.75" customHeight="1">
+    <row r="354" spans="6:7" ht="15.75" customHeight="1">
       <c r="F354" s="9"/>
       <c r="G354" s="9"/>
     </row>
-    <row r="355" ht="15.75" customHeight="1">
+    <row r="355" spans="6:7" ht="15.75" customHeight="1">
       <c r="F355" s="9"/>
       <c r="G355" s="9"/>
     </row>
-    <row r="356" ht="15.75" customHeight="1">
+    <row r="356" spans="6:7" ht="15.75" customHeight="1">
       <c r="F356" s="9"/>
       <c r="G356" s="9"/>
     </row>
-    <row r="357" ht="15.75" customHeight="1">
+    <row r="357" spans="6:7" ht="15.75" customHeight="1">
       <c r="F357" s="9"/>
       <c r="G357" s="9"/>
     </row>
-    <row r="358" ht="15.75" customHeight="1">
+    <row r="358" spans="6:7" ht="15.75" customHeight="1">
       <c r="F358" s="9"/>
       <c r="G358" s="9"/>
     </row>
-    <row r="359" ht="15.75" customHeight="1">
+    <row r="359" spans="6:7" ht="15.75" customHeight="1">
       <c r="F359" s="9"/>
       <c r="G359" s="9"/>
     </row>
-    <row r="360" ht="15.75" customHeight="1">
+    <row r="360" spans="6:7" ht="15.75" customHeight="1">
       <c r="F360" s="9"/>
       <c r="G360" s="9"/>
     </row>
-    <row r="361" ht="15.75" customHeight="1">
+    <row r="361" spans="6:7" ht="15.75" customHeight="1">
       <c r="F361" s="9"/>
       <c r="G361" s="9"/>
     </row>
-    <row r="362" ht="15.75" customHeight="1">
+    <row r="362" spans="6:7" ht="15.75" customHeight="1">
       <c r="F362" s="9"/>
       <c r="G362" s="9"/>
     </row>
-    <row r="363" ht="15.75" customHeight="1">
+    <row r="363" spans="6:7" ht="15.75" customHeight="1">
       <c r="F363" s="9"/>
       <c r="G363" s="9"/>
     </row>
-    <row r="364" ht="15.75" customHeight="1">
+    <row r="364" spans="6:7" ht="15.75" customHeight="1">
       <c r="F364" s="9"/>
       <c r="G364" s="9"/>
     </row>
-    <row r="365" ht="15.75" customHeight="1">
+    <row r="365" spans="6:7" ht="15.75" customHeight="1">
       <c r="F365" s="9"/>
       <c r="G365" s="9"/>
     </row>
-    <row r="366" ht="15.75" customHeight="1">
+    <row r="366" spans="6:7" ht="15.75" customHeight="1">
       <c r="F366" s="9"/>
       <c r="G366" s="9"/>
     </row>
-    <row r="367" ht="15.75" customHeight="1">
+    <row r="367" spans="6:7" ht="15.75" customHeight="1">
       <c r="F367" s="9"/>
       <c r="G367" s="9"/>
     </row>
-    <row r="368" ht="15.75" customHeight="1">
+    <row r="368" spans="6:7" ht="15.75" customHeight="1">
       <c r="F368" s="9"/>
       <c r="G368" s="9"/>
     </row>
-    <row r="369" ht="15.75" customHeight="1">
+    <row r="369" spans="6:7" ht="15.75" customHeight="1">
       <c r="F369" s="9"/>
       <c r="G369" s="9"/>
     </row>
-    <row r="370" ht="15.75" customHeight="1">
+    <row r="370" spans="6:7" ht="15.75" customHeight="1">
       <c r="F370" s="9"/>
       <c r="G370" s="9"/>
     </row>
-    <row r="371" ht="15.75" customHeight="1">
+    <row r="371" spans="6:7" ht="15.75" customHeight="1">
       <c r="F371" s="9"/>
       <c r="G371" s="9"/>
     </row>
-    <row r="372" ht="15.75" customHeight="1">
+    <row r="372" spans="6:7" ht="15.75" customHeight="1">
       <c r="F372" s="9"/>
       <c r="G372" s="9"/>
     </row>
-    <row r="373" ht="15.75" customHeight="1">
+    <row r="373" spans="6:7" ht="15.75" customHeight="1">
       <c r="F373" s="9"/>
       <c r="G373" s="9"/>
     </row>
-    <row r="374" ht="15.75" customHeight="1">
+    <row r="374" spans="6:7" ht="15.75" customHeight="1">
       <c r="F374" s="9"/>
       <c r="G374" s="9"/>
     </row>
-    <row r="375" ht="15.75" customHeight="1">
+    <row r="375" spans="6:7" ht="15.75" customHeight="1">
       <c r="F375" s="9"/>
       <c r="G375" s="9"/>
     </row>
-    <row r="376" ht="15.75" customHeight="1">
+    <row r="376" spans="6:7" ht="15.75" customHeight="1">
       <c r="F376" s="9"/>
       <c r="G376" s="9"/>
     </row>
-    <row r="377" ht="15.75" customHeight="1">
+    <row r="377" spans="6:7" ht="15.75" customHeight="1">
       <c r="F377" s="9"/>
       <c r="G377" s="9"/>
     </row>
-    <row r="378" ht="15.75" customHeight="1">
+    <row r="378" spans="6:7" ht="15.75" customHeight="1">
       <c r="F378" s="9"/>
       <c r="G378" s="9"/>
     </row>
-    <row r="379" ht="15.75" customHeight="1">
+    <row r="379" spans="6:7" ht="15.75" customHeight="1">
       <c r="F379" s="9"/>
       <c r="G379" s="9"/>
     </row>
-    <row r="380" ht="15.75" customHeight="1">
+    <row r="380" spans="6:7" ht="15.75" customHeight="1">
       <c r="F380" s="9"/>
       <c r="G380" s="9"/>
     </row>
-    <row r="381" ht="15.75" customHeight="1">
+    <row r="381" spans="6:7" ht="15.75" customHeight="1">
       <c r="F381" s="9"/>
       <c r="G381" s="9"/>
     </row>
-    <row r="382" ht="15.75" customHeight="1">
+    <row r="382" spans="6:7" ht="15.75" customHeight="1">
       <c r="F382" s="9"/>
       <c r="G382" s="9"/>
     </row>
-    <row r="383" ht="15.75" customHeight="1">
+    <row r="383" spans="6:7" ht="15.75" customHeight="1">
       <c r="F383" s="9"/>
       <c r="G383" s="9"/>
     </row>
-    <row r="384" ht="15.75" customHeight="1">
+    <row r="384" spans="6:7" ht="15.75" customHeight="1">
       <c r="F384" s="9"/>
       <c r="G384" s="9"/>
     </row>
-    <row r="385" ht="15.75" customHeight="1">
+    <row r="385" spans="6:7" ht="15.75" customHeight="1">
       <c r="F385" s="9"/>
       <c r="G385" s="9"/>
     </row>
-    <row r="386" ht="15.75" customHeight="1">
+    <row r="386" spans="6:7" ht="15.75" customHeight="1">
       <c r="F386" s="9"/>
       <c r="G386" s="9"/>
     </row>
-    <row r="387" ht="15.75" customHeight="1">
+    <row r="387" spans="6:7" ht="15.75" customHeight="1">
       <c r="F387" s="9"/>
       <c r="G387" s="9"/>
     </row>
-    <row r="388" ht="15.75" customHeight="1">
+    <row r="388" spans="6:7" ht="15.75" customHeight="1">
       <c r="F388" s="9"/>
       <c r="G388" s="9"/>
     </row>
-    <row r="389" ht="15.75" customHeight="1">
+    <row r="389" spans="6:7" ht="15.75" customHeight="1">
       <c r="F389" s="9"/>
       <c r="G389" s="9"/>
     </row>
-    <row r="390" ht="15.75" customHeight="1">
+    <row r="390" spans="6:7" ht="15.75" customHeight="1">
       <c r="F390" s="9"/>
       <c r="G390" s="9"/>
     </row>
-    <row r="391" ht="15.75" customHeight="1">
+    <row r="391" spans="6:7" ht="15.75" customHeight="1">
       <c r="F391" s="9"/>
       <c r="G391" s="9"/>
     </row>
-    <row r="392" ht="15.75" customHeight="1">
+    <row r="392" spans="6:7" ht="15.75" customHeight="1">
       <c r="F392" s="9"/>
       <c r="G392" s="9"/>
     </row>
-    <row r="393" ht="15.75" customHeight="1">
+    <row r="393" spans="6:7" ht="15.75" customHeight="1">
       <c r="F393" s="9"/>
       <c r="G393" s="9"/>
     </row>
-    <row r="394" ht="15.75" customHeight="1">
+    <row r="394" spans="6:7" ht="15.75" customHeight="1">
       <c r="F394" s="9"/>
       <c r="G394" s="9"/>
     </row>
-    <row r="395" ht="15.75" customHeight="1">
+    <row r="395" spans="6:7" ht="15.75" customHeight="1">
       <c r="F395" s="9"/>
       <c r="G395" s="9"/>
     </row>
-    <row r="396" ht="15.75" customHeight="1">
+    <row r="396" spans="6:7" ht="15.75" customHeight="1">
       <c r="F396" s="9"/>
       <c r="G396" s="9"/>
     </row>
-    <row r="397" ht="15.75" customHeight="1">
+    <row r="397" spans="6:7" ht="15.75" customHeight="1">
       <c r="F397" s="9"/>
       <c r="G397" s="9"/>
     </row>
-    <row r="398" ht="15.75" customHeight="1">
+    <row r="398" spans="6:7" ht="15.75" customHeight="1">
       <c r="F398" s="9"/>
       <c r="G398" s="9"/>
     </row>
-    <row r="399" ht="15.75" customHeight="1">
+    <row r="399" spans="6:7" ht="15.75" customHeight="1">
       <c r="F399" s="9"/>
       <c r="G399" s="9"/>
     </row>
-    <row r="400" ht="15.75" customHeight="1">
+    <row r="400" spans="6:7" ht="15.75" customHeight="1">
       <c r="F400" s="9"/>
       <c r="G400" s="9"/>
     </row>
-    <row r="401" ht="15.75" customHeight="1">
+    <row r="401" spans="6:7" ht="15.75" customHeight="1">
       <c r="F401" s="9"/>
       <c r="G401" s="9"/>
     </row>
-    <row r="402" ht="15.75" customHeight="1">
+    <row r="402" spans="6:7" ht="15.75" customHeight="1">
       <c r="F402" s="9"/>
       <c r="G402" s="9"/>
     </row>
-    <row r="403" ht="15.75" customHeight="1">
+    <row r="403" spans="6:7" ht="15.75" customHeight="1">
       <c r="F403" s="9"/>
       <c r="G403" s="9"/>
     </row>
-    <row r="404" ht="15.75" customHeight="1">
+    <row r="404" spans="6:7" ht="15.75" customHeight="1">
       <c r="F404" s="9"/>
       <c r="G404" s="9"/>
     </row>
-    <row r="405" ht="15.75" customHeight="1">
+    <row r="405" spans="6:7" ht="15.75" customHeight="1">
       <c r="F405" s="9"/>
       <c r="G405" s="9"/>
     </row>
-    <row r="406" ht="15.75" customHeight="1">
+    <row r="406" spans="6:7" ht="15.75" customHeight="1">
       <c r="F406" s="9"/>
       <c r="G406" s="9"/>
     </row>
-    <row r="407" ht="15.75" customHeight="1">
+    <row r="407" spans="6:7" ht="15.75" customHeight="1">
       <c r="F407" s="9"/>
       <c r="G407" s="9"/>
     </row>
-    <row r="408" ht="15.75" customHeight="1">
+    <row r="408" spans="6:7" ht="15.75" customHeight="1">
       <c r="F408" s="9"/>
       <c r="G408" s="9"/>
     </row>
-    <row r="409" ht="15.75" customHeight="1">
+    <row r="409" spans="6:7" ht="15.75" customHeight="1">
       <c r="F409" s="9"/>
       <c r="G409" s="9"/>
     </row>
-    <row r="410" ht="15.75" customHeight="1">
+    <row r="410" spans="6:7" ht="15.75" customHeight="1">
       <c r="F410" s="9"/>
       <c r="G410" s="9"/>
     </row>
-    <row r="411" ht="15.75" customHeight="1">
+    <row r="411" spans="6:7" ht="15.75" customHeight="1">
       <c r="F411" s="9"/>
       <c r="G411" s="9"/>
     </row>
-    <row r="412" ht="15.75" customHeight="1">
+    <row r="412" spans="6:7" ht="15.75" customHeight="1">
       <c r="F412" s="9"/>
       <c r="G412" s="9"/>
     </row>
-    <row r="413" ht="15.75" customHeight="1">
+    <row r="413" spans="6:7" ht="15.75" customHeight="1">
       <c r="F413" s="9"/>
       <c r="G413" s="9"/>
     </row>
-    <row r="414" ht="15.75" customHeight="1">
+    <row r="414" spans="6:7" ht="15.75" customHeight="1">
       <c r="F414" s="9"/>
       <c r="G414" s="9"/>
     </row>
-    <row r="415" ht="15.75" customHeight="1">
+    <row r="415" spans="6:7" ht="15.75" customHeight="1">
       <c r="F415" s="9"/>
       <c r="G415" s="9"/>
     </row>
-    <row r="416" ht="15.75" customHeight="1">
+    <row r="416" spans="6:7" ht="15.75" customHeight="1">
       <c r="F416" s="9"/>
       <c r="G416" s="9"/>
     </row>
-    <row r="417" ht="15.75" customHeight="1">
+    <row r="417" spans="6:7" ht="15.75" customHeight="1">
       <c r="F417" s="9"/>
       <c r="G417" s="9"/>
     </row>
-    <row r="418" ht="15.75" customHeight="1">
+    <row r="418" spans="6:7" ht="15.75" customHeight="1">
       <c r="F418" s="9"/>
       <c r="G418" s="9"/>
     </row>
-    <row r="419" ht="15.75" customHeight="1">
+    <row r="419" spans="6:7" ht="15.75" customHeight="1">
       <c r="F419" s="9"/>
       <c r="G419" s="9"/>
     </row>
-    <row r="420" ht="15.75" customHeight="1">
+    <row r="420" spans="6:7" ht="15.75" customHeight="1">
       <c r="F420" s="9"/>
       <c r="G420" s="9"/>
     </row>
-    <row r="421" ht="15.75" customHeight="1">
+    <row r="421" spans="6:7" ht="15.75" customHeight="1">
       <c r="F421" s="9"/>
       <c r="G421" s="9"/>
     </row>
-    <row r="422" ht="15.75" customHeight="1">
+    <row r="422" spans="6:7" ht="15.75" customHeight="1">
       <c r="F422" s="9"/>
       <c r="G422" s="9"/>
     </row>
-    <row r="423" ht="15.75" customHeight="1">
+    <row r="423" spans="6:7" ht="15.75" customHeight="1">
       <c r="F423" s="9"/>
       <c r="G423" s="9"/>
     </row>
-    <row r="424" ht="15.75" customHeight="1">
+    <row r="424" spans="6:7" ht="15.75" customHeight="1">
       <c r="F424" s="9"/>
       <c r="G424" s="9"/>
     </row>
-    <row r="425" ht="15.75" customHeight="1">
+    <row r="425" spans="6:7" ht="15.75" customHeight="1">
       <c r="F425" s="9"/>
       <c r="G425" s="9"/>
     </row>
-    <row r="426" ht="15.75" customHeight="1">
+    <row r="426" spans="6:7" ht="15.75" customHeight="1">
       <c r="F426" s="9"/>
       <c r="G426" s="9"/>
     </row>
-    <row r="427" ht="15.75" customHeight="1">
+    <row r="427" spans="6:7" ht="15.75" customHeight="1">
       <c r="F427" s="9"/>
       <c r="G427" s="9"/>
     </row>
-    <row r="428" ht="15.75" customHeight="1">
+    <row r="428" spans="6:7" ht="15.75" customHeight="1">
       <c r="F428" s="9"/>
       <c r="G428" s="9"/>
     </row>
-    <row r="429" ht="15.75" customHeight="1">
+    <row r="429" spans="6:7" ht="15.75" customHeight="1">
       <c r="F429" s="9"/>
       <c r="G429" s="9"/>
     </row>
-    <row r="430" ht="15.75" customHeight="1">
+    <row r="430" spans="6:7" ht="15.75" customHeight="1">
       <c r="F430" s="9"/>
       <c r="G430" s="9"/>
     </row>
-    <row r="431" ht="15.75" customHeight="1">
+    <row r="431" spans="6:7" ht="15.75" customHeight="1">
       <c r="F431" s="9"/>
       <c r="G431" s="9"/>
     </row>
-    <row r="432" ht="15.75" customHeight="1">
+    <row r="432" spans="6:7" ht="15.75" customHeight="1">
       <c r="F432" s="9"/>
       <c r="G432" s="9"/>
     </row>
-    <row r="433" ht="15.75" customHeight="1">
+    <row r="433" spans="6:7" ht="15.75" customHeight="1">
       <c r="F433" s="9"/>
       <c r="G433" s="9"/>
     </row>
-    <row r="434" ht="15.75" customHeight="1">
+    <row r="434" spans="6:7" ht="15.75" customHeight="1">
       <c r="F434" s="9"/>
       <c r="G434" s="9"/>
     </row>
-    <row r="435" ht="15.75" customHeight="1">
+    <row r="435" spans="6:7" ht="15.75" customHeight="1">
       <c r="F435" s="9"/>
       <c r="G435" s="9"/>
     </row>
-    <row r="436" ht="15.75" customHeight="1">
+    <row r="436" spans="6:7" ht="15.75" customHeight="1">
       <c r="F436" s="9"/>
       <c r="G436" s="9"/>
     </row>
-    <row r="437" ht="15.75" customHeight="1">
+    <row r="437" spans="6:7" ht="15.75" customHeight="1">
       <c r="F437" s="9"/>
       <c r="G437" s="9"/>
     </row>
-    <row r="438" ht="15.75" customHeight="1">
+    <row r="438" spans="6:7" ht="15.75" customHeight="1">
       <c r="F438" s="9"/>
       <c r="G438" s="9"/>
     </row>
-    <row r="439" ht="15.75" customHeight="1">
+    <row r="439" spans="6:7" ht="15.75" customHeight="1">
       <c r="F439" s="9"/>
       <c r="G439" s="9"/>
     </row>
-    <row r="440" ht="15.75" customHeight="1">
+    <row r="440" spans="6:7" ht="15.75" customHeight="1">
       <c r="F440" s="9"/>
       <c r="G440" s="9"/>
     </row>
-    <row r="441" ht="15.75" customHeight="1">
+    <row r="441" spans="6:7" ht="15.75" customHeight="1">
       <c r="F441" s="9"/>
       <c r="G441" s="9"/>
     </row>
-    <row r="442" ht="15.75" customHeight="1">
+    <row r="442" spans="6:7" ht="15.75" customHeight="1">
       <c r="F442" s="9"/>
       <c r="G442" s="9"/>
     </row>
-    <row r="443" ht="15.75" customHeight="1">
+    <row r="443" spans="6:7" ht="15.75" customHeight="1">
       <c r="F443" s="9"/>
       <c r="G443" s="9"/>
     </row>
-    <row r="444" ht="15.75" customHeight="1">
+    <row r="444" spans="6:7" ht="15.75" customHeight="1">
       <c r="F444" s="9"/>
       <c r="G444" s="9"/>
     </row>
-    <row r="445" ht="15.75" customHeight="1">
+    <row r="445" spans="6:7" ht="15.75" customHeight="1">
       <c r="F445" s="9"/>
       <c r="G445" s="9"/>
     </row>
-    <row r="446" ht="15.75" customHeight="1">
+    <row r="446" spans="6:7" ht="15.75" customHeight="1">
       <c r="F446" s="9"/>
       <c r="G446" s="9"/>
     </row>
-    <row r="447" ht="15.75" customHeight="1">
+    <row r="447" spans="6:7" ht="15.75" customHeight="1">
       <c r="F447" s="9"/>
       <c r="G447" s="9"/>
     </row>
-    <row r="448" ht="15.75" customHeight="1">
+    <row r="448" spans="6:7" ht="15.75" customHeight="1">
       <c r="F448" s="9"/>
       <c r="G448" s="9"/>
     </row>
-    <row r="449" ht="15.75" customHeight="1">
+    <row r="449" spans="6:7" ht="15.75" customHeight="1">
       <c r="F449" s="9"/>
       <c r="G449" s="9"/>
     </row>
-    <row r="450" ht="15.75" customHeight="1">
+    <row r="450" spans="6:7" ht="15.75" customHeight="1">
       <c r="F450" s="9"/>
       <c r="G450" s="9"/>
     </row>
-    <row r="451" ht="15.75" customHeight="1">
+    <row r="451" spans="6:7" ht="15.75" customHeight="1">
       <c r="F451" s="9"/>
       <c r="G451" s="9"/>
     </row>
-    <row r="452" ht="15.75" customHeight="1">
+    <row r="452" spans="6:7" ht="15.75" customHeight="1">
       <c r="F452" s="9"/>
       <c r="G452" s="9"/>
     </row>
-    <row r="453" ht="15.75" customHeight="1">
+    <row r="453" spans="6:7" ht="15.75" customHeight="1">
       <c r="F453" s="9"/>
       <c r="G453" s="9"/>
     </row>
-    <row r="454" ht="15.75" customHeight="1">
+    <row r="454" spans="6:7" ht="15.75" customHeight="1">
       <c r="F454" s="9"/>
       <c r="G454" s="9"/>
     </row>
-    <row r="455" ht="15.75" customHeight="1">
+    <row r="455" spans="6:7" ht="15.75" customHeight="1">
       <c r="F455" s="9"/>
       <c r="G455" s="9"/>
     </row>
-    <row r="456" ht="15.75" customHeight="1">
+    <row r="456" spans="6:7" ht="15.75" customHeight="1">
       <c r="F456" s="9"/>
       <c r="G456" s="9"/>
     </row>
-    <row r="457" ht="15.75" customHeight="1">
+    <row r="457" spans="6:7" ht="15.75" customHeight="1">
       <c r="F457" s="9"/>
       <c r="G457" s="9"/>
     </row>
-    <row r="458" ht="15.75" customHeight="1">
+    <row r="458" spans="6:7" ht="15.75" customHeight="1">
       <c r="F458" s="9"/>
       <c r="G458" s="9"/>
     </row>
-    <row r="459" ht="15.75" customHeight="1">
+    <row r="459" spans="6:7" ht="15.75" customHeight="1">
       <c r="F459" s="9"/>
       <c r="G459" s="9"/>
     </row>
-    <row r="460" ht="15.75" customHeight="1">
+    <row r="460" spans="6:7" ht="15.75" customHeight="1">
       <c r="F460" s="9"/>
       <c r="G460" s="9"/>
     </row>
-    <row r="461" ht="15.75" customHeight="1">
+    <row r="461" spans="6:7" ht="15.75" customHeight="1">
       <c r="F461" s="9"/>
       <c r="G461" s="9"/>
     </row>
-    <row r="462" ht="15.75" customHeight="1">
+    <row r="462" spans="6:7" ht="15.75" customHeight="1">
       <c r="F462" s="9"/>
       <c r="G462" s="9"/>
     </row>
-    <row r="463" ht="15.75" customHeight="1">
+    <row r="463" spans="6:7" ht="15.75" customHeight="1">
       <c r="F463" s="9"/>
       <c r="G463" s="9"/>
     </row>
-    <row r="464" ht="15.75" customHeight="1">
+    <row r="464" spans="6:7" ht="15.75" customHeight="1">
       <c r="F464" s="9"/>
       <c r="G464" s="9"/>
     </row>
-    <row r="465" ht="15.75" customHeight="1">
+    <row r="465" spans="6:7" ht="15.75" customHeight="1">
       <c r="F465" s="9"/>
       <c r="G465" s="9"/>
     </row>
-    <row r="466" ht="15.75" customHeight="1">
+    <row r="466" spans="6:7" ht="15.75" customHeight="1">
       <c r="F466" s="9"/>
       <c r="G466" s="9"/>
     </row>
-    <row r="467" ht="15.75" customHeight="1">
+    <row r="467" spans="6:7" ht="15.75" customHeight="1">
       <c r="F467" s="9"/>
       <c r="G467" s="9"/>
     </row>
-    <row r="468" ht="15.75" customHeight="1">
+    <row r="468" spans="6:7" ht="15.75" customHeight="1">
       <c r="F468" s="9"/>
       <c r="G468" s="9"/>
     </row>
-    <row r="469" ht="15.75" customHeight="1">
+    <row r="469" spans="6:7" ht="15.75" customHeight="1">
       <c r="F469" s="9"/>
       <c r="G469" s="9"/>
     </row>
-    <row r="470" ht="15.75" customHeight="1">
+    <row r="470" spans="6:7" ht="15.75" customHeight="1">
       <c r="F470" s="9"/>
       <c r="G470" s="9"/>
     </row>
-    <row r="471" ht="15.75" customHeight="1">
+    <row r="471" spans="6:7" ht="15.75" customHeight="1">
       <c r="F471" s="9"/>
       <c r="G471" s="9"/>
     </row>
-    <row r="472" ht="15.75" customHeight="1">
+    <row r="472" spans="6:7" ht="15.75" customHeight="1">
       <c r="F472" s="9"/>
       <c r="G472" s="9"/>
     </row>
-    <row r="473" ht="15.75" customHeight="1">
+    <row r="473" spans="6:7" ht="15.75" customHeight="1">
       <c r="F473" s="9"/>
       <c r="G473" s="9"/>
     </row>
-    <row r="474" ht="15.75" customHeight="1">
+    <row r="474" spans="6:7" ht="15.75" customHeight="1">
       <c r="F474" s="9"/>
       <c r="G474" s="9"/>
     </row>
-    <row r="475" ht="15.75" customHeight="1">
+    <row r="475" spans="6:7" ht="15.75" customHeight="1">
       <c r="F475" s="9"/>
       <c r="G475" s="9"/>
     </row>
-    <row r="476" ht="15.75" customHeight="1">
+    <row r="476" spans="6:7" ht="15.75" customHeight="1">
       <c r="F476" s="9"/>
       <c r="G476" s="9"/>
     </row>
-    <row r="477" ht="15.75" customHeight="1">
+    <row r="477" spans="6:7" ht="15.75" customHeight="1">
       <c r="F477" s="9"/>
       <c r="G477" s="9"/>
     </row>
-    <row r="478" ht="15.75" customHeight="1">
+    <row r="478" spans="6:7" ht="15.75" customHeight="1">
       <c r="F478" s="9"/>
       <c r="G478" s="9"/>
     </row>
-    <row r="479" ht="15.75" customHeight="1">
+    <row r="479" spans="6:7" ht="15.75" customHeight="1">
       <c r="F479" s="9"/>
       <c r="G479" s="9"/>
     </row>
-    <row r="480" ht="15.75" customHeight="1">
+    <row r="480" spans="6:7" ht="15.75" customHeight="1">
       <c r="F480" s="9"/>
       <c r="G480" s="9"/>
     </row>
-    <row r="481" ht="15.75" customHeight="1">
+    <row r="481" spans="6:7" ht="15.75" customHeight="1">
       <c r="F481" s="9"/>
       <c r="G481" s="9"/>
     </row>
-    <row r="482" ht="15.75" customHeight="1">
+    <row r="482" spans="6:7" ht="15.75" customHeight="1">
       <c r="F482" s="9"/>
       <c r="G482" s="9"/>
     </row>
-    <row r="483" ht="15.75" customHeight="1">
+    <row r="483" spans="6:7" ht="15.75" customHeight="1">
       <c r="F483" s="9"/>
       <c r="G483" s="9"/>
     </row>
-    <row r="484" ht="15.75" customHeight="1">
+    <row r="484" spans="6:7" ht="15.75" customHeight="1">
       <c r="F484" s="9"/>
       <c r="G484" s="9"/>
     </row>
-    <row r="485" ht="15.75" customHeight="1">
+    <row r="485" spans="6:7" ht="15.75" customHeight="1">
       <c r="F485" s="9"/>
       <c r="G485" s="9"/>
     </row>
-    <row r="486" ht="15.75" customHeight="1">
+    <row r="486" spans="6:7" ht="15.75" customHeight="1">
       <c r="F486" s="9"/>
       <c r="G486" s="9"/>
     </row>
-    <row r="487" ht="15.75" customHeight="1">
+    <row r="487" spans="6:7" ht="15.75" customHeight="1">
       <c r="F487" s="9"/>
       <c r="G487" s="9"/>
     </row>
-    <row r="488" ht="15.75" customHeight="1">
+    <row r="488" spans="6:7" ht="15.75" customHeight="1">
       <c r="F488" s="9"/>
       <c r="G488" s="9"/>
     </row>
-    <row r="489" ht="15.75" customHeight="1">
+    <row r="489" spans="6:7" ht="15.75" customHeight="1">
       <c r="F489" s="9"/>
       <c r="G489" s="9"/>
     </row>
-    <row r="490" ht="15.75" customHeight="1">
+    <row r="490" spans="6:7" ht="15.75" customHeight="1">
       <c r="F490" s="9"/>
       <c r="G490" s="9"/>
     </row>
-    <row r="491" ht="15.75" customHeight="1">
+    <row r="491" spans="6:7" ht="15.75" customHeight="1">
       <c r="F491" s="9"/>
       <c r="G491" s="9"/>
     </row>
-    <row r="492" ht="15.75" customHeight="1">
+    <row r="492" spans="6:7" ht="15.75" customHeight="1">
       <c r="F492" s="9"/>
       <c r="G492" s="9"/>
     </row>
-    <row r="493" ht="15.75" customHeight="1">
+    <row r="493" spans="6:7" ht="15.75" customHeight="1">
       <c r="F493" s="9"/>
       <c r="G493" s="9"/>
     </row>
-    <row r="494" ht="15.75" customHeight="1">
+    <row r="494" spans="6:7" ht="15.75" customHeight="1">
       <c r="F494" s="9"/>
       <c r="G494" s="9"/>
     </row>
-    <row r="495" ht="15.75" customHeight="1">
+    <row r="495" spans="6:7" ht="15.75" customHeight="1">
       <c r="F495" s="9"/>
       <c r="G495" s="9"/>
     </row>
-    <row r="496" ht="15.75" customHeight="1">
+    <row r="496" spans="6:7" ht="15.75" customHeight="1">
       <c r="F496" s="9"/>
       <c r="G496" s="9"/>
     </row>
-    <row r="497" ht="15.75" customHeight="1">
+    <row r="497" spans="6:7" ht="15.75" customHeight="1">
       <c r="F497" s="9"/>
       <c r="G497" s="9"/>
     </row>
-    <row r="498" ht="15.75" customHeight="1">
+    <row r="498" spans="6:7" ht="15.75" customHeight="1">
       <c r="F498" s="9"/>
       <c r="G498" s="9"/>
     </row>
-    <row r="499" ht="15.75" customHeight="1">
+    <row r="499" spans="6:7" ht="15.75" customHeight="1">
       <c r="F499" s="9"/>
       <c r="G499" s="9"/>
     </row>
-    <row r="500" ht="15.75" customHeight="1">
+    <row r="500" spans="6:7" ht="15.75" customHeight="1">
       <c r="F500" s="9"/>
       <c r="G500" s="9"/>
     </row>
-    <row r="501" ht="15.75" customHeight="1">
+    <row r="501" spans="6:7" ht="15.75" customHeight="1">
       <c r="F501" s="9"/>
       <c r="G501" s="9"/>
     </row>
-    <row r="502" ht="15.75" customHeight="1">
+    <row r="502" spans="6:7" ht="15.75" customHeight="1">
       <c r="F502" s="9"/>
       <c r="G502" s="9"/>
     </row>
-    <row r="503" ht="15.75" customHeight="1">
+    <row r="503" spans="6:7" ht="15.75" customHeight="1">
       <c r="F503" s="9"/>
       <c r="G503" s="9"/>
     </row>
-    <row r="504" ht="15.75" customHeight="1">
+    <row r="504" spans="6:7" ht="15.75" customHeight="1">
       <c r="F504" s="9"/>
       <c r="G504" s="9"/>
     </row>
-    <row r="505" ht="15.75" customHeight="1">
+    <row r="505" spans="6:7" ht="15.75" customHeight="1">
       <c r="F505" s="9"/>
       <c r="G505" s="9"/>
     </row>
-    <row r="506" ht="15.75" customHeight="1">
+    <row r="506" spans="6:7" ht="15.75" customHeight="1">
       <c r="F506" s="9"/>
       <c r="G506" s="9"/>
     </row>
-    <row r="507" ht="15.75" customHeight="1">
+    <row r="507" spans="6:7" ht="15.75" customHeight="1">
       <c r="F507" s="9"/>
       <c r="G507" s="9"/>
     </row>
-    <row r="508" ht="15.75" customHeight="1">
+    <row r="508" spans="6:7" ht="15.75" customHeight="1">
       <c r="F508" s="9"/>
       <c r="G508" s="9"/>
     </row>
-    <row r="509" ht="15.75" customHeight="1">
+    <row r="509" spans="6:7" ht="15.75" customHeight="1">
       <c r="F509" s="9"/>
       <c r="G509" s="9"/>
     </row>
-    <row r="510" ht="15.75" customHeight="1">
+    <row r="510" spans="6:7" ht="15.75" customHeight="1">
       <c r="F510" s="9"/>
       <c r="G510" s="9"/>
     </row>
-    <row r="511" ht="15.75" customHeight="1">
+    <row r="511" spans="6:7" ht="15.75" customHeight="1">
       <c r="F511" s="9"/>
       <c r="G511" s="9"/>
     </row>
-    <row r="512" ht="15.75" customHeight="1">
+    <row r="512" spans="6:7" ht="15.75" customHeight="1">
       <c r="F512" s="9"/>
       <c r="G512" s="9"/>
     </row>
-    <row r="513" ht="15.75" customHeight="1">
+    <row r="513" spans="6:7" ht="15.75" customHeight="1">
       <c r="F513" s="9"/>
       <c r="G513" s="9"/>
     </row>
-    <row r="514" ht="15.75" customHeight="1">
+    <row r="514" spans="6:7" ht="15.75" customHeight="1">
       <c r="F514" s="9"/>
       <c r="G514" s="9"/>
     </row>
-    <row r="515" ht="15.75" customHeight="1">
+    <row r="515" spans="6:7" ht="15.75" customHeight="1">
       <c r="F515" s="9"/>
       <c r="G515" s="9"/>
     </row>
-    <row r="516" ht="15.75" customHeight="1">
+    <row r="516" spans="6:7" ht="15.75" customHeight="1">
       <c r="F516" s="9"/>
       <c r="G516" s="9"/>
     </row>
-    <row r="517" ht="15.75" customHeight="1">
+    <row r="517" spans="6:7" ht="15.75" customHeight="1">
       <c r="F517" s="9"/>
       <c r="G517" s="9"/>
     </row>
-    <row r="518" ht="15.75" customHeight="1">
+    <row r="518" spans="6:7" ht="15.75" customHeight="1">
       <c r="F518" s="9"/>
       <c r="G518" s="9"/>
     </row>
-    <row r="519" ht="15.75" customHeight="1">
+    <row r="519" spans="6:7" ht="15.75" customHeight="1">
       <c r="F519" s="9"/>
       <c r="G519" s="9"/>
     </row>
-    <row r="520" ht="15.75" customHeight="1">
+    <row r="520" spans="6:7" ht="15.75" customHeight="1">
       <c r="F520" s="9"/>
       <c r="G520" s="9"/>
     </row>
-    <row r="521" ht="15.75" customHeight="1">
+    <row r="521" spans="6:7" ht="15.75" customHeight="1">
       <c r="F521" s="9"/>
       <c r="G521" s="9"/>
     </row>
-    <row r="522" ht="15.75" customHeight="1">
+    <row r="522" spans="6:7" ht="15.75" customHeight="1">
       <c r="F522" s="9"/>
       <c r="G522" s="9"/>
     </row>
-    <row r="523" ht="15.75" customHeight="1">
+    <row r="523" spans="6:7" ht="15.75" customHeight="1">
       <c r="F523" s="9"/>
       <c r="G523" s="9"/>
     </row>
-    <row r="524" ht="15.75" customHeight="1">
+    <row r="524" spans="6:7" ht="15.75" customHeight="1">
       <c r="F524" s="9"/>
       <c r="G524" s="9"/>
     </row>
-    <row r="525" ht="15.75" customHeight="1">
+    <row r="525" spans="6:7" ht="15.75" customHeight="1">
       <c r="F525" s="9"/>
       <c r="G525" s="9"/>
     </row>
-    <row r="526" ht="15.75" customHeight="1">
+    <row r="526" spans="6:7" ht="15.75" customHeight="1">
       <c r="F526" s="9"/>
       <c r="G526" s="9"/>
     </row>
-    <row r="527" ht="15.75" customHeight="1">
+    <row r="527" spans="6:7" ht="15.75" customHeight="1">
       <c r="F527" s="9"/>
       <c r="G527" s="9"/>
     </row>
-    <row r="528" ht="15.75" customHeight="1">
+    <row r="528" spans="6:7" ht="15.75" customHeight="1">
       <c r="F528" s="9"/>
       <c r="G528" s="9"/>
     </row>
-    <row r="529" ht="15.75" customHeight="1">
+    <row r="529" spans="6:7" ht="15.75" customHeight="1">
       <c r="F529" s="9"/>
       <c r="G529" s="9"/>
     </row>
-    <row r="530" ht="15.75" customHeight="1">
+    <row r="530" spans="6:7" ht="15.75" customHeight="1">
       <c r="F530" s="9"/>
       <c r="G530" s="9"/>
     </row>
-    <row r="531" ht="15.75" customHeight="1">
+    <row r="531" spans="6:7" ht="15.75" customHeight="1">
       <c r="F531" s="9"/>
       <c r="G531" s="9"/>
     </row>
-    <row r="532" ht="15.75" customHeight="1">
+    <row r="532" spans="6:7" ht="15.75" customHeight="1">
       <c r="F532" s="9"/>
       <c r="G532" s="9"/>
     </row>
-    <row r="533" ht="15.75" customHeight="1">
+    <row r="533" spans="6:7" ht="15.75" customHeight="1">
       <c r="F533" s="9"/>
       <c r="G533" s="9"/>
     </row>
-    <row r="534" ht="15.75" customHeight="1">
+    <row r="534" spans="6:7" ht="15.75" customHeight="1">
       <c r="F534" s="9"/>
       <c r="G534" s="9"/>
     </row>
-    <row r="535" ht="15.75" customHeight="1">
+    <row r="535" spans="6:7" ht="15.75" customHeight="1">
       <c r="F535" s="9"/>
       <c r="G535" s="9"/>
     </row>
-    <row r="536" ht="15.75" customHeight="1">
+    <row r="536" spans="6:7" ht="15.75" customHeight="1">
       <c r="F536" s="9"/>
       <c r="G536" s="9"/>
     </row>
-    <row r="537" ht="15.75" customHeight="1">
+    <row r="537" spans="6:7" ht="15.75" customHeight="1">
       <c r="F537" s="9"/>
       <c r="G537" s="9"/>
     </row>
-    <row r="538" ht="15.75" customHeight="1">
+    <row r="538" spans="6:7" ht="15.75" customHeight="1">
       <c r="F538" s="9"/>
       <c r="G538" s="9"/>
     </row>
-    <row r="539" ht="15.75" customHeight="1">
+    <row r="539" spans="6:7" ht="15.75" customHeight="1">
       <c r="F539" s="9"/>
       <c r="G539" s="9"/>
     </row>
-    <row r="540" ht="15.75" customHeight="1">
+    <row r="540" spans="6:7" ht="15.75" customHeight="1">
       <c r="F540" s="9"/>
       <c r="G540" s="9"/>
     </row>
-    <row r="541" ht="15.75" customHeight="1">
+    <row r="541" spans="6:7" ht="15.75" customHeight="1">
       <c r="F541" s="9"/>
       <c r="G541" s="9"/>
     </row>
-    <row r="542" ht="15.75" customHeight="1">
+    <row r="542" spans="6:7" ht="15.75" customHeight="1">
       <c r="F542" s="9"/>
       <c r="G542" s="9"/>
     </row>
-    <row r="543" ht="15.75" customHeight="1">
+    <row r="543" spans="6:7" ht="15.75" customHeight="1">
       <c r="F543" s="9"/>
       <c r="G543" s="9"/>
     </row>
-    <row r="544" ht="15.75" customHeight="1">
+    <row r="544" spans="6:7" ht="15.75" customHeight="1">
       <c r="F544" s="9"/>
       <c r="G544" s="9"/>
     </row>
-    <row r="545" ht="15.75" customHeight="1">
+    <row r="545" spans="6:7" ht="15.75" customHeight="1">
       <c r="F545" s="9"/>
       <c r="G545" s="9"/>
     </row>
-    <row r="546" ht="15.75" customHeight="1">
+    <row r="546" spans="6:7" ht="15.75" customHeight="1">
       <c r="F546" s="9"/>
       <c r="G546" s="9"/>
     </row>
-    <row r="547" ht="15.75" customHeight="1">
+    <row r="547" spans="6:7" ht="15.75" customHeight="1">
       <c r="F547" s="9"/>
       <c r="G547" s="9"/>
     </row>
-    <row r="548" ht="15.75" customHeight="1">
+    <row r="548" spans="6:7" ht="15.75" customHeight="1">
       <c r="F548" s="9"/>
       <c r="G548" s="9"/>
     </row>
-    <row r="549" ht="15.75" customHeight="1">
+    <row r="549" spans="6:7" ht="15.75" customHeight="1">
       <c r="F549" s="9"/>
       <c r="G549" s="9"/>
     </row>
-    <row r="550" ht="15.75" customHeight="1">
+    <row r="550" spans="6:7" ht="15.75" customHeight="1">
       <c r="F550" s="9"/>
       <c r="G550" s="9"/>
     </row>
-    <row r="551" ht="15.75" customHeight="1">
+    <row r="551" spans="6:7" ht="15.75" customHeight="1">
       <c r="F551" s="9"/>
       <c r="G551" s="9"/>
     </row>
-    <row r="552" ht="15.75" customHeight="1">
+    <row r="552" spans="6:7" ht="15.75" customHeight="1">
       <c r="F552" s="9"/>
       <c r="G552" s="9"/>
     </row>
-    <row r="553" ht="15.75" customHeight="1">
+    <row r="553" spans="6:7" ht="15.75" customHeight="1">
       <c r="F553" s="9"/>
       <c r="G553" s="9"/>
     </row>
-    <row r="554" ht="15.75" customHeight="1">
+    <row r="554" spans="6:7" ht="15.75" customHeight="1">
       <c r="F554" s="9"/>
       <c r="G554" s="9"/>
     </row>
-    <row r="555" ht="15.75" customHeight="1">
+    <row r="555" spans="6:7" ht="15.75" customHeight="1">
       <c r="F555" s="9"/>
       <c r="G555" s="9"/>
     </row>
-    <row r="556" ht="15.75" customHeight="1">
+    <row r="556" spans="6:7" ht="15.75" customHeight="1">
       <c r="F556" s="9"/>
       <c r="G556" s="9"/>
     </row>
-    <row r="557" ht="15.75" customHeight="1">
+    <row r="557" spans="6:7" ht="15.75" customHeight="1">
       <c r="F557" s="9"/>
       <c r="G557" s="9"/>
     </row>
-    <row r="558" ht="15.75" customHeight="1">
+    <row r="558" spans="6:7" ht="15.75" customHeight="1">
       <c r="F558" s="9"/>
       <c r="G558" s="9"/>
     </row>
-    <row r="559" ht="15.75" customHeight="1">
+    <row r="559" spans="6:7" ht="15.75" customHeight="1">
       <c r="F559" s="9"/>
       <c r="G559" s="9"/>
     </row>
-    <row r="560" ht="15.75" customHeight="1">
+    <row r="560" spans="6:7" ht="15.75" customHeight="1">
       <c r="F560" s="9"/>
       <c r="G560" s="9"/>
     </row>
-    <row r="561" ht="15.75" customHeight="1">
+    <row r="561" spans="6:7" ht="15.75" customHeight="1">
       <c r="F561" s="9"/>
       <c r="G561" s="9"/>
     </row>
-    <row r="562" ht="15.75" customHeight="1">
+    <row r="562" spans="6:7" ht="15.75" customHeight="1">
       <c r="F562" s="9"/>
       <c r="G562" s="9"/>
     </row>
-    <row r="563" ht="15.75" customHeight="1">
+    <row r="563" spans="6:7" ht="15.75" customHeight="1">
       <c r="F563" s="9"/>
       <c r="G563" s="9"/>
     </row>
-    <row r="564" ht="15.75" customHeight="1">
+    <row r="564" spans="6:7" ht="15.75" customHeight="1">
       <c r="F564" s="9"/>
       <c r="G564" s="9"/>
     </row>
-    <row r="565" ht="15.75" customHeight="1">
+    <row r="565" spans="6:7" ht="15.75" customHeight="1">
       <c r="F565" s="9"/>
       <c r="G565" s="9"/>
     </row>
-    <row r="566" ht="15.75" customHeight="1">
+    <row r="566" spans="6:7" ht="15.75" customHeight="1">
       <c r="F566" s="9"/>
       <c r="G566" s="9"/>
     </row>
-    <row r="567" ht="15.75" customHeight="1">
+    <row r="567" spans="6:7" ht="15.75" customHeight="1">
       <c r="F567" s="9"/>
       <c r="G567" s="9"/>
     </row>
-    <row r="568" ht="15.75" customHeight="1">
+    <row r="568" spans="6:7" ht="15.75" customHeight="1">
       <c r="F568" s="9"/>
       <c r="G568" s="9"/>
     </row>
-    <row r="569" ht="15.75" customHeight="1">
+    <row r="569" spans="6:7" ht="15.75" customHeight="1">
       <c r="F569" s="9"/>
       <c r="G569" s="9"/>
     </row>
-    <row r="570" ht="15.75" customHeight="1">
+    <row r="570" spans="6:7" ht="15.75" customHeight="1">
       <c r="F570" s="9"/>
       <c r="G570" s="9"/>
     </row>
-    <row r="571" ht="15.75" customHeight="1">
+    <row r="571" spans="6:7" ht="15.75" customHeight="1">
       <c r="F571" s="9"/>
       <c r="G571" s="9"/>
     </row>
-    <row r="572" ht="15.75" customHeight="1">
+    <row r="572" spans="6:7" ht="15.75" customHeight="1">
       <c r="F572" s="9"/>
       <c r="G572" s="9"/>
     </row>
-    <row r="573" ht="15.75" customHeight="1">
+    <row r="573" spans="6:7" ht="15.75" customHeight="1">
       <c r="F573" s="9"/>
       <c r="G573" s="9"/>
     </row>
-    <row r="574" ht="15.75" customHeight="1">
+    <row r="574" spans="6:7" ht="15.75" customHeight="1">
       <c r="F574" s="9"/>
       <c r="G574" s="9"/>
     </row>
-    <row r="575" ht="15.75" customHeight="1">
+    <row r="575" spans="6:7" ht="15.75" customHeight="1">
       <c r="F575" s="9"/>
       <c r="G575" s="9"/>
     </row>
-    <row r="576" ht="15.75" customHeight="1">
+    <row r="576" spans="6:7" ht="15.75" customHeight="1">
       <c r="F576" s="9"/>
       <c r="G576" s="9"/>
     </row>
-    <row r="577" ht="15.75" customHeight="1">
+    <row r="577" spans="6:7" ht="15.75" customHeight="1">
       <c r="F577" s="9"/>
       <c r="G577" s="9"/>
     </row>
-    <row r="578" ht="15.75" customHeight="1">
+    <row r="578" spans="6:7" ht="15.75" customHeight="1">
       <c r="F578" s="9"/>
       <c r="G578" s="9"/>
     </row>
-    <row r="579" ht="15.75" customHeight="1">
+    <row r="579" spans="6:7" ht="15.75" customHeight="1">
       <c r="F579" s="9"/>
       <c r="G579" s="9"/>
     </row>
-    <row r="580" ht="15.75" customHeight="1">
+    <row r="580" spans="6:7" ht="15.75" customHeight="1">
       <c r="F580" s="9"/>
       <c r="G580" s="9"/>
     </row>
-    <row r="581" ht="15.75" customHeight="1">
+    <row r="581" spans="6:7" ht="15.75" customHeight="1">
       <c r="F581" s="9"/>
       <c r="G581" s="9"/>
     </row>
-    <row r="582" ht="15.75" customHeight="1">
+    <row r="582" spans="6:7" ht="15.75" customHeight="1">
       <c r="F582" s="9"/>
       <c r="G582" s="9"/>
     </row>
-    <row r="583" ht="15.75" customHeight="1">
+    <row r="583" spans="6:7" ht="15.75" customHeight="1">
       <c r="F583" s="9"/>
       <c r="G583" s="9"/>
     </row>
-    <row r="584" ht="15.75" customHeight="1">
+    <row r="584" spans="6:7" ht="15.75" customHeight="1">
       <c r="F584" s="9"/>
       <c r="G584" s="9"/>
     </row>
-    <row r="585" ht="15.75" customHeight="1">
+    <row r="585" spans="6:7" ht="15.75" customHeight="1">
       <c r="F585" s="9"/>
       <c r="G585" s="9"/>
     </row>
-    <row r="586" ht="15.75" customHeight="1">
+    <row r="586" spans="6:7" ht="15.75" customHeight="1">
       <c r="F586" s="9"/>
       <c r="G586" s="9"/>
     </row>
-    <row r="587" ht="15.75" customHeight="1">
+    <row r="587" spans="6:7" ht="15.75" customHeight="1">
       <c r="F587" s="9"/>
       <c r="G587" s="9"/>
     </row>
-    <row r="588" ht="15.75" customHeight="1">
+    <row r="588" spans="6:7" ht="15.75" customHeight="1">
       <c r="F588" s="9"/>
       <c r="G588" s="9"/>
     </row>
-    <row r="589" ht="15.75" customHeight="1">
+    <row r="589" spans="6:7" ht="15.75" customHeight="1">
       <c r="F589" s="9"/>
       <c r="G589" s="9"/>
     </row>
-    <row r="590" ht="15.75" customHeight="1">
+    <row r="590" spans="6:7" ht="15.75" customHeight="1">
       <c r="F590" s="9"/>
       <c r="G590" s="9"/>
     </row>
-    <row r="591" ht="15.75" customHeight="1">
+    <row r="591" spans="6:7" ht="15.75" customHeight="1">
       <c r="F591" s="9"/>
       <c r="G591" s="9"/>
     </row>
-    <row r="592" ht="15.75" customHeight="1">
+    <row r="592" spans="6:7" ht="15.75" customHeight="1">
       <c r="F592" s="9"/>
       <c r="G592" s="9"/>
     </row>
-    <row r="593" ht="15.75" customHeight="1">
+    <row r="593" spans="6:7" ht="15.75" customHeight="1">
       <c r="F593" s="9"/>
       <c r="G593" s="9"/>
     </row>
-    <row r="594" ht="15.75" customHeight="1">
+    <row r="594" spans="6:7" ht="15.75" customHeight="1">
       <c r="F594" s="9"/>
       <c r="G594" s="9"/>
     </row>
-    <row r="595" ht="15.75" customHeight="1">
+    <row r="595" spans="6:7" ht="15.75" customHeight="1">
       <c r="F595" s="9"/>
       <c r="G595" s="9"/>
     </row>
-    <row r="596" ht="15.75" customHeight="1">
+    <row r="596" spans="6:7" ht="15.75" customHeight="1">
       <c r="F596" s="9"/>
       <c r="G596" s="9"/>
     </row>
-    <row r="597" ht="15.75" customHeight="1">
+    <row r="597" spans="6:7" ht="15.75" customHeight="1">
       <c r="F597" s="9"/>
       <c r="G597" s="9"/>
     </row>
-    <row r="598" ht="15.75" customHeight="1">
+    <row r="598" spans="6:7" ht="15.75" customHeight="1">
       <c r="F598" s="9"/>
       <c r="G598" s="9"/>
     </row>
-    <row r="599" ht="15.75" customHeight="1">
+    <row r="599" spans="6:7" ht="15.75" customHeight="1">
       <c r="F599" s="9"/>
       <c r="G599" s="9"/>
     </row>
-    <row r="600" ht="15.75" customHeight="1">
+    <row r="600" spans="6:7" ht="15.75" customHeight="1">
       <c r="F600" s="9"/>
       <c r="G600" s="9"/>
     </row>
-    <row r="601" ht="15.75" customHeight="1">
+    <row r="601" spans="6:7" ht="15.75" customHeight="1">
       <c r="F601" s="9"/>
       <c r="G601" s="9"/>
     </row>
-    <row r="602" ht="15.75" customHeight="1">
+    <row r="602" spans="6:7" ht="15.75" customHeight="1">
       <c r="F602" s="9"/>
       <c r="G602" s="9"/>
     </row>
-    <row r="603" ht="15.75" customHeight="1">
+    <row r="603" spans="6:7" ht="15.75" customHeight="1">
       <c r="F603" s="9"/>
       <c r="G603" s="9"/>
     </row>
-    <row r="604" ht="15.75" customHeight="1">
+    <row r="604" spans="6:7" ht="15.75" customHeight="1">
       <c r="F604" s="9"/>
       <c r="G604" s="9"/>
     </row>
-    <row r="605" ht="15.75" customHeight="1">
+    <row r="605" spans="6:7" ht="15.75" customHeight="1">
       <c r="F605" s="9"/>
       <c r="G605" s="9"/>
     </row>
-    <row r="606" ht="15.75" customHeight="1">
+    <row r="606" spans="6:7" ht="15.75" customHeight="1">
       <c r="F606" s="9"/>
       <c r="G606" s="9"/>
     </row>
-    <row r="607" ht="15.75" customHeight="1">
+    <row r="607" spans="6:7" ht="15.75" customHeight="1">
       <c r="F607" s="9"/>
       <c r="G607" s="9"/>
     </row>
-    <row r="608" ht="15.75" customHeight="1">
+    <row r="608" spans="6:7" ht="15.75" customHeight="1">
       <c r="F608" s="9"/>
       <c r="G608" s="9"/>
     </row>
-    <row r="609" ht="15.75" customHeight="1">
+    <row r="609" spans="6:7" ht="15.75" customHeight="1">
       <c r="F609" s="9"/>
       <c r="G609" s="9"/>
     </row>
-    <row r="610" ht="15.75" customHeight="1">
+    <row r="610" spans="6:7" ht="15.75" customHeight="1">
       <c r="F610" s="9"/>
       <c r="G610" s="9"/>
     </row>
-    <row r="611" ht="15.75" customHeight="1">
+    <row r="611" spans="6:7" ht="15.75" customHeight="1">
       <c r="F611" s="9"/>
       <c r="G611" s="9"/>
     </row>
-    <row r="612" ht="15.75" customHeight="1">
+    <row r="612" spans="6:7" ht="15.75" customHeight="1">
       <c r="F612" s="9"/>
       <c r="G612" s="9"/>
     </row>
-    <row r="613" ht="15.75" customHeight="1">
+    <row r="613" spans="6:7" ht="15.75" customHeight="1">
       <c r="F613" s="9"/>
       <c r="G613" s="9"/>
     </row>
-    <row r="614" ht="15.75" customHeight="1">
+    <row r="614" spans="6:7" ht="15.75" customHeight="1">
       <c r="F614" s="9"/>
       <c r="G614" s="9"/>
     </row>
-    <row r="615" ht="15.75" customHeight="1">
+    <row r="615" spans="6:7" ht="15.75" customHeight="1">
       <c r="F615" s="9"/>
       <c r="G615" s="9"/>
     </row>
-    <row r="616" ht="15.75" customHeight="1">
+    <row r="616" spans="6:7" ht="15.75" customHeight="1">
       <c r="F616" s="9"/>
       <c r="G616" s="9"/>
     </row>
-    <row r="617" ht="15.75" customHeight="1">
+    <row r="617" spans="6:7" ht="15.75" customHeight="1">
       <c r="F617" s="9"/>
       <c r="G617" s="9"/>
     </row>
-    <row r="618" ht="15.75" customHeight="1">
+    <row r="618" spans="6:7" ht="15.75" customHeight="1">
       <c r="F618" s="9"/>
       <c r="G618" s="9"/>
     </row>
-    <row r="619" ht="15.75" customHeight="1">
+    <row r="619" spans="6:7" ht="15.75" customHeight="1">
       <c r="F619" s="9"/>
       <c r="G619" s="9"/>
     </row>
-    <row r="620" ht="15.75" customHeight="1">
+    <row r="620" spans="6:7" ht="15.75" customHeight="1">
       <c r="F620" s="9"/>
       <c r="G620" s="9"/>
     </row>
-    <row r="621" ht="15.75" customHeight="1">
+    <row r="621" spans="6:7" ht="15.75" customHeight="1">
       <c r="F621" s="9"/>
       <c r="G621" s="9"/>
     </row>
-    <row r="622" ht="15.75" customHeight="1">
+    <row r="622" spans="6:7" ht="15.75" customHeight="1">
       <c r="F622" s="9"/>
       <c r="G622" s="9"/>
     </row>
-    <row r="623" ht="15.75" customHeight="1">
+    <row r="623" spans="6:7" ht="15.75" customHeight="1">
       <c r="F623" s="9"/>
       <c r="G623" s="9"/>
     </row>
-    <row r="624" ht="15.75" customHeight="1">
+    <row r="624" spans="6:7" ht="15.75" customHeight="1">
       <c r="F624" s="9"/>
       <c r="G624" s="9"/>
     </row>
-    <row r="625" ht="15.75" customHeight="1">
+    <row r="625" spans="6:7" ht="15.75" customHeight="1">
       <c r="F625" s="9"/>
       <c r="G625" s="9"/>
     </row>
-    <row r="626" ht="15.75" customHeight="1">
+    <row r="626" spans="6:7" ht="15.75" customHeight="1">
       <c r="F626" s="9"/>
       <c r="G626" s="9"/>
     </row>
-    <row r="627" ht="15.75" customHeight="1">
+    <row r="627" spans="6:7" ht="15.75" customHeight="1">
       <c r="F627" s="9"/>
       <c r="G627" s="9"/>
     </row>
-    <row r="628" ht="15.75" customHeight="1">
+    <row r="628" spans="6:7" ht="15.75" customHeight="1">
       <c r="F628" s="9"/>
       <c r="G628" s="9"/>
     </row>
-    <row r="629" ht="15.75" customHeight="1">
+    <row r="629" spans="6:7" ht="15.75" customHeight="1">
       <c r="F629" s="9"/>
       <c r="G629" s="9"/>
     </row>
-    <row r="630" ht="15.75" customHeight="1">
+    <row r="630" spans="6:7" ht="15.75" customHeight="1">
       <c r="F630" s="9"/>
       <c r="G630" s="9"/>
     </row>
-    <row r="631" ht="15.75" customHeight="1">
+    <row r="631" spans="6:7" ht="15.75" customHeight="1">
       <c r="F631" s="9"/>
       <c r="G631" s="9"/>
     </row>
-    <row r="632" ht="15.75" customHeight="1">
+    <row r="632" spans="6:7" ht="15.75" customHeight="1">
       <c r="F632" s="9"/>
       <c r="G632" s="9"/>
     </row>
-    <row r="633" ht="15.75" customHeight="1">
+    <row r="633" spans="6:7" ht="15.75" customHeight="1">
       <c r="F633" s="9"/>
       <c r="G633" s="9"/>
     </row>
-    <row r="634" ht="15.75" customHeight="1">
+    <row r="634" spans="6:7" ht="15.75" customHeight="1">
       <c r="F634" s="9"/>
       <c r="G634" s="9"/>
     </row>
-    <row r="635" ht="15.75" customHeight="1">
+    <row r="635" spans="6:7" ht="15.75" customHeight="1">
       <c r="F635" s="9"/>
       <c r="G635" s="9"/>
     </row>
-    <row r="636" ht="15.75" customHeight="1">
+    <row r="636" spans="6:7" ht="15.75" customHeight="1">
       <c r="F636" s="9"/>
       <c r="G636" s="9"/>
     </row>
-    <row r="637" ht="15.75" customHeight="1">
+    <row r="637" spans="6:7" ht="15.75" customHeight="1">
       <c r="F637" s="9"/>
       <c r="G637" s="9"/>
     </row>
-    <row r="638" ht="15.75" customHeight="1">
+    <row r="638" spans="6:7" ht="15.75" customHeight="1">
       <c r="F638" s="9"/>
       <c r="G638" s="9"/>
     </row>
-    <row r="639" ht="15.75" customHeight="1">
+    <row r="639" spans="6:7" ht="15.75" customHeight="1">
       <c r="F639" s="9"/>
       <c r="G639" s="9"/>
     </row>
-    <row r="640" ht="15.75" customHeight="1">
+    <row r="640" spans="6:7" ht="15.75" customHeight="1">
       <c r="F640" s="9"/>
       <c r="G640" s="9"/>
     </row>
-    <row r="641" ht="15.75" customHeight="1">
+    <row r="641" spans="6:7" ht="15.75" customHeight="1">
       <c r="F641" s="9"/>
       <c r="G641" s="9"/>
     </row>
-    <row r="642" ht="15.75" customHeight="1">
+    <row r="642" spans="6:7" ht="15.75" customHeight="1">
       <c r="F642" s="9"/>
       <c r="G642" s="9"/>
     </row>
-    <row r="643" ht="15.75" customHeight="1">
+    <row r="643" spans="6:7" ht="15.75" customHeight="1">
       <c r="F643" s="9"/>
       <c r="G643" s="9"/>
     </row>
-    <row r="644" ht="15.75" customHeight="1">
+    <row r="644" spans="6:7" ht="15.75" customHeight="1">
       <c r="F644" s="9"/>
       <c r="G644" s="9"/>
     </row>
-    <row r="645" ht="15.75" customHeight="1">
+    <row r="645" spans="6:7" ht="15.75" customHeight="1">
       <c r="F645" s="9"/>
       <c r="G645" s="9"/>
     </row>
-    <row r="646" ht="15.75" customHeight="1">
+    <row r="646" spans="6:7" ht="15.75" customHeight="1">
       <c r="F646" s="9"/>
       <c r="G646" s="9"/>
     </row>
-    <row r="647" ht="15.75" customHeight="1">
+    <row r="647" spans="6:7" ht="15.75" customHeight="1">
       <c r="F647" s="9"/>
       <c r="G647" s="9"/>
     </row>
-    <row r="648" ht="15.75" customHeight="1">
+    <row r="648" spans="6:7" ht="15.75" customHeight="1">
       <c r="F648" s="9"/>
       <c r="G648" s="9"/>
     </row>
-    <row r="649" ht="15.75" customHeight="1">
+    <row r="649" spans="6:7" ht="15.75" customHeight="1">
       <c r="F649" s="9"/>
       <c r="G649" s="9"/>
     </row>
-    <row r="650" ht="15.75" customHeight="1">
+    <row r="650" spans="6:7" ht="15.75" customHeight="1">
       <c r="F650" s="9"/>
       <c r="G650" s="9"/>
     </row>
-    <row r="651" ht="15.75" customHeight="1">
+    <row r="651" spans="6:7" ht="15.75" customHeight="1">
       <c r="F651" s="9"/>
       <c r="G651" s="9"/>
     </row>
-    <row r="652" ht="15.75" customHeight="1">
+    <row r="652" spans="6:7" ht="15.75" customHeight="1">
       <c r="F652" s="9"/>
       <c r="G652" s="9"/>
     </row>
-    <row r="653" ht="15.75" customHeight="1">
+    <row r="653" spans="6:7" ht="15.75" customHeight="1">
       <c r="F653" s="9"/>
       <c r="G653" s="9"/>
     </row>
-    <row r="654" ht="15.75" customHeight="1">
+    <row r="654" spans="6:7" ht="15.75" customHeight="1">
       <c r="F654" s="9"/>
       <c r="G654" s="9"/>
     </row>
-    <row r="655" ht="15.75" customHeight="1">
+    <row r="655" spans="6:7" ht="15.75" customHeight="1">
       <c r="F655" s="9"/>
       <c r="G655" s="9"/>
     </row>
-    <row r="656" ht="15.75" customHeight="1">
+    <row r="656" spans="6:7" ht="15.75" customHeight="1">
       <c r="F656" s="9"/>
       <c r="G656" s="9"/>
     </row>
-    <row r="657" ht="15.75" customHeight="1">
+    <row r="657" spans="6:7" ht="15.75" customHeight="1">
       <c r="F657" s="9"/>
       <c r="G657" s="9"/>
     </row>
-    <row r="658" ht="15.75" customHeight="1">
+    <row r="658" spans="6:7" ht="15.75" customHeight="1">
       <c r="F658" s="9"/>
       <c r="G658" s="9"/>
     </row>
-    <row r="659" ht="15.75" customHeight="1">
+    <row r="659" spans="6:7" ht="15.75" customHeight="1">
       <c r="F659" s="9"/>
       <c r="G659" s="9"/>
     </row>
-    <row r="660" ht="15.75" customHeight="1">
+    <row r="660" spans="6:7" ht="15.75" customHeight="1">
       <c r="F660" s="9"/>
       <c r="G660" s="9"/>
     </row>
-    <row r="661" ht="15.75" customHeight="1">
+    <row r="661" spans="6:7" ht="15.75" customHeight="1">
       <c r="F661" s="9"/>
       <c r="G661" s="9"/>
     </row>
-    <row r="662" ht="15.75" customHeight="1">
+    <row r="662" spans="6:7" ht="15.75" customHeight="1">
       <c r="F662" s="9"/>
       <c r="G662" s="9"/>
     </row>
-    <row r="663" ht="15.75" customHeight="1">
+    <row r="663" spans="6:7" ht="15.75" customHeight="1">
       <c r="F663" s="9"/>
       <c r="G663" s="9"/>
     </row>
-    <row r="664" ht="15.75" customHeight="1">
+    <row r="664" spans="6:7" ht="15.75" customHeight="1">
       <c r="F664" s="9"/>
       <c r="G664" s="9"/>
     </row>
-    <row r="665" ht="15.75" customHeight="1">
+    <row r="665" spans="6:7" ht="15.75" customHeight="1">
       <c r="F665" s="9"/>
       <c r="G665" s="9"/>
     </row>
-    <row r="666" ht="15.75" customHeight="1">
+    <row r="666" spans="6:7" ht="15.75" customHeight="1">
       <c r="F666" s="9"/>
       <c r="G666" s="9"/>
     </row>
-    <row r="667" ht="15.75" customHeight="1">
+    <row r="667" spans="6:7" ht="15.75" customHeight="1">
       <c r="F667" s="9"/>
       <c r="G667" s="9"/>
     </row>
-    <row r="668" ht="15.75" customHeight="1">
+    <row r="668" spans="6:7" ht="15.75" customHeight="1">
       <c r="F668" s="9"/>
       <c r="G668" s="9"/>
     </row>
-    <row r="669" ht="15.75" customHeight="1">
+    <row r="669" spans="6:7" ht="15.75" customHeight="1">
       <c r="F669" s="9"/>
       <c r="G669" s="9"/>
     </row>
-    <row r="670" ht="15.75" customHeight="1">
+    <row r="670" spans="6:7" ht="15.75" customHeight="1">
       <c r="F670" s="9"/>
       <c r="G670" s="9"/>
     </row>
-    <row r="671" ht="15.75" customHeight="1">
+    <row r="671" spans="6:7" ht="15.75" customHeight="1">
       <c r="F671" s="9"/>
       <c r="G671" s="9"/>
     </row>
-    <row r="672" ht="15.75" customHeight="1">
+    <row r="672" spans="6:7" ht="15.75" customHeight="1">
       <c r="F672" s="9"/>
       <c r="G672" s="9"/>
     </row>
-    <row r="673" ht="15.75" customHeight="1">
+    <row r="673" spans="6:7" ht="15.75" customHeight="1">
       <c r="F673" s="9"/>
       <c r="G673" s="9"/>
     </row>
-    <row r="674" ht="15.75" customHeight="1">
+    <row r="674" spans="6:7" ht="15.75" customHeight="1">
       <c r="F674" s="9"/>
       <c r="G674" s="9"/>
     </row>
-    <row r="675" ht="15.75" customHeight="1">
+    <row r="675" spans="6:7" ht="15.75" customHeight="1">
       <c r="F675" s="9"/>
       <c r="G675" s="9"/>
     </row>
-    <row r="676" ht="15.75" customHeight="1">
+    <row r="676" spans="6:7" ht="15.75" customHeight="1">
       <c r="F676" s="9"/>
       <c r="G676" s="9"/>
     </row>
-    <row r="677" ht="15.75" customHeight="1">
+    <row r="677" spans="6:7" ht="15.75" customHeight="1">
       <c r="F677" s="9"/>
       <c r="G677" s="9"/>
     </row>
-    <row r="678" ht="15.75" customHeight="1">
+    <row r="678" spans="6:7" ht="15.75" customHeight="1">
       <c r="F678" s="9"/>
       <c r="G678" s="9"/>
     </row>
-    <row r="679" ht="15.75" customHeight="1">
+    <row r="679" spans="6:7" ht="15.75" customHeight="1">
       <c r="F679" s="9"/>
       <c r="G679" s="9"/>
     </row>
-    <row r="680" ht="15.75" customHeight="1">
+    <row r="680" spans="6:7" ht="15.75" customHeight="1">
       <c r="F680" s="9"/>
       <c r="G680" s="9"/>
     </row>
-    <row r="681" ht="15.75" customHeight="1">
+    <row r="681" spans="6:7" ht="15.75" customHeight="1">
       <c r="F681" s="9"/>
       <c r="G681" s="9"/>
     </row>
-    <row r="682" ht="15.75" customHeight="1">
+    <row r="682" spans="6:7" ht="15.75" customHeight="1">
       <c r="F682" s="9"/>
       <c r="G682" s="9"/>
     </row>
-    <row r="683" ht="15.75" customHeight="1">
+    <row r="683" spans="6:7" ht="15.75" customHeight="1">
       <c r="F683" s="9"/>
       <c r="G683" s="9"/>
     </row>
-    <row r="684" ht="15.75" customHeight="1">
+    <row r="684" spans="6:7" ht="15.75" customHeight="1">
       <c r="F684" s="9"/>
       <c r="G684" s="9"/>
     </row>
-    <row r="685" ht="15.75" customHeight="1">
+    <row r="685" spans="6:7" ht="15.75" customHeight="1">
       <c r="F685" s="9"/>
       <c r="G685" s="9"/>
     </row>
-    <row r="686" ht="15.75" customHeight="1">
+    <row r="686" spans="6:7" ht="15.75" customHeight="1">
       <c r="F686" s="9"/>
       <c r="G686" s="9"/>
     </row>
-    <row r="687" ht="15.75" customHeight="1">
+    <row r="687" spans="6:7" ht="15.75" customHeight="1">
       <c r="F687" s="9"/>
       <c r="G687" s="9"/>
     </row>
-    <row r="688" ht="15.75" customHeight="1">
+    <row r="688" spans="6:7" ht="15.75" customHeight="1">
       <c r="F688" s="9"/>
       <c r="G688" s="9"/>
     </row>
-    <row r="689" ht="15.75" customHeight="1">
+    <row r="689" spans="6:7" ht="15.75" customHeight="1">
       <c r="F689" s="9"/>
       <c r="G689" s="9"/>
     </row>
-    <row r="690" ht="15.75" customHeight="1">
+    <row r="690" spans="6:7" ht="15.75" customHeight="1">
       <c r="F690" s="9"/>
       <c r="G690" s="9"/>
     </row>
-    <row r="691" ht="15.75" customHeight="1">
+    <row r="691" spans="6:7" ht="15.75" customHeight="1">
       <c r="F691" s="9"/>
       <c r="G691" s="9"/>
     </row>
-    <row r="692" ht="15.75" customHeight="1">
+    <row r="692" spans="6:7" ht="15.75" customHeight="1">
       <c r="F692" s="9"/>
       <c r="G692" s="9"/>
     </row>
-    <row r="693" ht="15.75" customHeight="1">
+    <row r="693" spans="6:7" ht="15.75" customHeight="1">
       <c r="F693" s="9"/>
       <c r="G693" s="9"/>
     </row>
-    <row r="694" ht="15.75" customHeight="1">
+    <row r="694" spans="6:7" ht="15.75" customHeight="1">
       <c r="F694" s="9"/>
       <c r="G694" s="9"/>
     </row>
-    <row r="695" ht="15.75" customHeight="1">
+    <row r="695" spans="6:7" ht="15.75" customHeight="1">
       <c r="F695" s="9"/>
       <c r="G695" s="9"/>
     </row>
-    <row r="696" ht="15.75" customHeight="1">
+    <row r="696" spans="6:7" ht="15.75" customHeight="1">
       <c r="F696" s="9"/>
       <c r="G696" s="9"/>
     </row>
-    <row r="697" ht="15.75" customHeight="1">
+    <row r="697" spans="6:7" ht="15.75" customHeight="1">
       <c r="F697" s="9"/>
       <c r="G697" s="9"/>
     </row>
-    <row r="698" ht="15.75" customHeight="1">
+    <row r="698" spans="6:7" ht="15.75" customHeight="1">
       <c r="F698" s="9"/>
       <c r="G698" s="9"/>
     </row>
-    <row r="699" ht="15.75" customHeight="1">
+    <row r="699" spans="6:7" ht="15.75" customHeight="1">
       <c r="F699" s="9"/>
       <c r="G699" s="9"/>
     </row>
-    <row r="700" ht="15.75" customHeight="1">
+    <row r="700" spans="6:7" ht="15.75" customHeight="1">
       <c r="F700" s="9"/>
       <c r="G700" s="9"/>
     </row>
-    <row r="701" ht="15.75" customHeight="1">
+    <row r="701" spans="6:7" ht="15.75" customHeight="1">
       <c r="F701" s="9"/>
       <c r="G701" s="9"/>
     </row>
-    <row r="702" ht="15.75" customHeight="1">
+    <row r="702" spans="6:7" ht="15.75" customHeight="1">
       <c r="F702" s="9"/>
       <c r="G702" s="9"/>
     </row>
-    <row r="703" ht="15.75" customHeight="1">
+    <row r="703" spans="6:7" ht="15.75" customHeight="1">
       <c r="F703" s="9"/>
       <c r="G703" s="9"/>
     </row>
-    <row r="704" ht="15.75" customHeight="1">
+    <row r="704" spans="6:7" ht="15.75" customHeight="1">
       <c r="F704" s="9"/>
       <c r="G704" s="9"/>
     </row>
-    <row r="705" ht="15.75" customHeight="1">
+    <row r="705" spans="6:7" ht="15.75" customHeight="1">
       <c r="F705" s="9"/>
       <c r="G705" s="9"/>
     </row>
-    <row r="706" ht="15.75" customHeight="1">
+    <row r="706" spans="6:7" ht="15.75" customHeight="1">
       <c r="F706" s="9"/>
       <c r="G706" s="9"/>
     </row>
-    <row r="707" ht="15.75" customHeight="1">
+    <row r="707" spans="6:7" ht="15.75" customHeight="1">
       <c r="F707" s="9"/>
       <c r="G707" s="9"/>
     </row>
-    <row r="708" ht="15.75" customHeight="1">
+    <row r="708" spans="6:7" ht="15.75" customHeight="1">
       <c r="F708" s="9"/>
       <c r="G708" s="9"/>
     </row>
-    <row r="709" ht="15.75" customHeight="1">
+    <row r="709" spans="6:7" ht="15.75" customHeight="1">
       <c r="F709" s="9"/>
       <c r="G709" s="9"/>
     </row>
-    <row r="710" ht="15.75" customHeight="1">
+    <row r="710" spans="6:7" ht="15.75" customHeight="1">
       <c r="F710" s="9"/>
       <c r="G710" s="9"/>
     </row>
-    <row r="711" ht="15.75" customHeight="1">
+    <row r="711" spans="6:7" ht="15.75" customHeight="1">
       <c r="F711" s="9"/>
       <c r="G711" s="9"/>
     </row>
-    <row r="712" ht="15.75" customHeight="1">
+    <row r="712" spans="6:7" ht="15.75" customHeight="1">
       <c r="F712" s="9"/>
       <c r="G712" s="9"/>
     </row>
-    <row r="713" ht="15.75" customHeight="1">
+    <row r="713" spans="6:7" ht="15.75" customHeight="1">
       <c r="F713" s="9"/>
       <c r="G713" s="9"/>
     </row>
-    <row r="714" ht="15.75" customHeight="1">
+    <row r="714" spans="6:7" ht="15.75" customHeight="1">
       <c r="F714" s="9"/>
       <c r="G714" s="9"/>
     </row>
-    <row r="715" ht="15.75" customHeight="1">
+    <row r="715" spans="6:7" ht="15.75" customHeight="1">
       <c r="F715" s="9"/>
       <c r="G715" s="9"/>
     </row>
-    <row r="716" ht="15.75" customHeight="1">
+    <row r="716" spans="6:7" ht="15.75" customHeight="1">
       <c r="F716" s="9"/>
       <c r="G716" s="9"/>
     </row>
-    <row r="717" ht="15.75" customHeight="1">
+    <row r="717" spans="6:7" ht="15.75" customHeight="1">
       <c r="F717" s="9"/>
       <c r="G717" s="9"/>
     </row>
-    <row r="718" ht="15.75" customHeight="1">
+    <row r="718" spans="6:7" ht="15.75" customHeight="1">
       <c r="F718" s="9"/>
       <c r="G718" s="9"/>
     </row>
-    <row r="719" ht="15.75" customHeight="1">
+    <row r="719" spans="6:7" ht="15.75" customHeight="1">
       <c r="F719" s="9"/>
       <c r="G719" s="9"/>
     </row>
-    <row r="720" ht="15.75" customHeight="1">
+    <row r="720" spans="6:7" ht="15.75" customHeight="1">
       <c r="F720" s="9"/>
       <c r="G720" s="9"/>
     </row>
-    <row r="721" ht="15.75" customHeight="1">
+    <row r="721" spans="6:7" ht="15.75" customHeight="1">
       <c r="F721" s="9"/>
       <c r="G721" s="9"/>
     </row>
-    <row r="722" ht="15.75" customHeight="1">
+    <row r="722" spans="6:7" ht="15.75" customHeight="1">
       <c r="F722" s="9"/>
       <c r="G722" s="9"/>
     </row>
-    <row r="723" ht="15.75" customHeight="1">
+    <row r="723" spans="6:7" ht="15.75" customHeight="1">
       <c r="F723" s="9"/>
       <c r="G723" s="9"/>
     </row>
-    <row r="724" ht="15.75" customHeight="1">
+    <row r="724" spans="6:7" ht="15.75" customHeight="1">
       <c r="F724" s="9"/>
       <c r="G724" s="9"/>
     </row>
-    <row r="725" ht="15.75" customHeight="1">
+    <row r="725" spans="6:7" ht="15.75" customHeight="1">
       <c r="F725" s="9"/>
       <c r="G725" s="9"/>
     </row>
-    <row r="726" ht="15.75" customHeight="1">
+    <row r="726" spans="6:7" ht="15.75" customHeight="1">
       <c r="F726" s="9"/>
       <c r="G726" s="9"/>
     </row>
-    <row r="727" ht="15.75" customHeight="1">
+    <row r="727" spans="6:7" ht="15.75" customHeight="1">
       <c r="F727" s="9"/>
       <c r="G727" s="9"/>
     </row>
-    <row r="728" ht="15.75" customHeight="1">
+    <row r="728" spans="6:7" ht="15.75" customHeight="1">
       <c r="F728" s="9"/>
       <c r="G728" s="9"/>
     </row>
-    <row r="729" ht="15.75" customHeight="1">
+    <row r="729" spans="6:7" ht="15.75" customHeight="1">
       <c r="F729" s="9"/>
       <c r="G729" s="9"/>
     </row>
-    <row r="730" ht="15.75" customHeight="1">
+    <row r="730" spans="6:7" ht="15.75" customHeight="1">
       <c r="F730" s="9"/>
       <c r="G730" s="9"/>
     </row>
-    <row r="731" ht="15.75" customHeight="1">
+    <row r="731" spans="6:7" ht="15.75" customHeight="1">
       <c r="F731" s="9"/>
       <c r="G731" s="9"/>
     </row>
-    <row r="732" ht="15.75" customHeight="1">
+    <row r="732" spans="6:7" ht="15.75" customHeight="1">
       <c r="F732" s="9"/>
       <c r="G732" s="9"/>
     </row>
-    <row r="733" ht="15.75" customHeight="1">
+    <row r="733" spans="6:7" ht="15.75" customHeight="1">
       <c r="F733" s="9"/>
       <c r="G733" s="9"/>
     </row>
-    <row r="734" ht="15.75" customHeight="1">
+    <row r="734" spans="6:7" ht="15.75" customHeight="1">
       <c r="F734" s="9"/>
       <c r="G734" s="9"/>
     </row>
-    <row r="735" ht="15.75" customHeight="1">
+    <row r="735" spans="6:7" ht="15.75" customHeight="1">
       <c r="F735" s="9"/>
       <c r="G735" s="9"/>
     </row>
-    <row r="736" ht="15.75" customHeight="1">
+    <row r="736" spans="6:7" ht="15.75" customHeight="1">
       <c r="F736" s="9"/>
       <c r="G736" s="9"/>
     </row>
-    <row r="737" ht="15.75" customHeight="1">
+    <row r="737" spans="6:7" ht="15.75" customHeight="1">
       <c r="F737" s="9"/>
       <c r="G737" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2 H2:M2">
-    <cfRule type="expression" dxfId="21" priority="10">
+    <cfRule type="expression" dxfId="2" priority="10">
       <formula>OR(#REF!="Общие",#REF!="Архитектура",#REF!="Конструктив",#REF!="ОВиВК",#REF!="ЭСиСС")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>AND(#REF!="",$E2="",$F2="",$G2="",#REF!&lt;&gt;"")</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="12">
+    <cfRule type="expression" dxfId="0" priority="12">
       <formula>AND(#REF!="",$E2="",$F2="",$G2="",#REF!="")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="26.25" customWidth="1" style="1"/>
-    <col min="3" max="3" width="11.875" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="2" max="2" width="26.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.8984375" customWidth="1"/>
+    <col min="4" max="4" width="12.09765625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" spans="1:5" ht="14.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -5549,88 +5220,35 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" bestFit="1" width="15" customWidth="1"/>
-    <col min="2" max="2" bestFit="1" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="10" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/FamilySorting/res/Реестр_семейств.xlsx
+++ b/FamilySorting/res/Реестр_семейств.xlsx
@@ -487,11 +487,11 @@
     <tabColor rgb="FFFFFF00"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA737"/>
+  <dimension ref="A1:AA719"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -520,8 +520,8 @@
     <col min="25" max="25" width="13.5" style="4" customWidth="1"/>
     <col min="26" max="26" width="13.09765625" style="4" customWidth="1"/>
     <col min="27" max="27" width="6.59765625" style="4" customWidth="1"/>
-    <col min="28" max="29" width="12.59765625" style="4" customWidth="1"/>
-    <col min="30" max="16384" width="12.59765625" style="4"/>
+    <col min="28" max="33" width="12.59765625" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="12.59765625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="29.25" customHeight="1">
@@ -2814,243 +2814,99 @@
       <c r="R184" s="7"/>
       <c r="S184" s="7"/>
     </row>
-    <row r="185" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-      <c r="D185" s="2"/>
-      <c r="F185" s="7"/>
-      <c r="G185" s="7"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="8"/>
-      <c r="R185" s="7"/>
-      <c r="S185" s="7"/>
-    </row>
-    <row r="186" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-      <c r="D186" s="2"/>
-      <c r="F186" s="7"/>
-      <c r="G186" s="7"/>
-      <c r="P186" s="2"/>
-      <c r="Q186" s="8"/>
-      <c r="R186" s="7"/>
-      <c r="S186" s="7"/>
-    </row>
-    <row r="187" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-      <c r="D187" s="2"/>
-      <c r="F187" s="7"/>
-      <c r="G187" s="7"/>
-      <c r="P187" s="2"/>
-      <c r="Q187" s="8"/>
-      <c r="R187" s="7"/>
-      <c r="S187" s="7"/>
-    </row>
-    <row r="188" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-      <c r="F188" s="7"/>
-      <c r="G188" s="7"/>
-      <c r="P188" s="2"/>
-      <c r="Q188" s="8"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="7"/>
-    </row>
-    <row r="189" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-      <c r="D189" s="2"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="7"/>
-      <c r="P189" s="2"/>
-      <c r="Q189" s="8"/>
-      <c r="R189" s="7"/>
-      <c r="S189" s="7"/>
-    </row>
-    <row r="190" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-      <c r="D190" s="2"/>
-      <c r="F190" s="7"/>
-      <c r="G190" s="7"/>
-      <c r="P190" s="2"/>
-      <c r="Q190" s="8"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7"/>
-    </row>
-    <row r="191" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-      <c r="D191" s="2"/>
-      <c r="F191" s="7"/>
-      <c r="G191" s="7"/>
-      <c r="P191" s="2"/>
-      <c r="Q191" s="8"/>
-      <c r="R191" s="7"/>
-      <c r="S191" s="7"/>
-    </row>
-    <row r="192" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-      <c r="D192" s="2"/>
-      <c r="F192" s="7"/>
-      <c r="G192" s="7"/>
-      <c r="P192" s="2"/>
-      <c r="Q192" s="8"/>
-      <c r="R192" s="7"/>
-      <c r="S192" s="7"/>
-    </row>
-    <row r="193" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="7"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="8"/>
-      <c r="R193" s="7"/>
-      <c r="S193" s="7"/>
-    </row>
-    <row r="194" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-      <c r="D194" s="2"/>
-      <c r="F194" s="7"/>
-      <c r="G194" s="7"/>
-      <c r="P194" s="2"/>
-      <c r="Q194" s="8"/>
-      <c r="R194" s="7"/>
-      <c r="S194" s="7"/>
-    </row>
-    <row r="195" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-      <c r="D195" s="2"/>
-      <c r="F195" s="7"/>
-      <c r="G195" s="7"/>
-      <c r="P195" s="2"/>
-      <c r="Q195" s="8"/>
-      <c r="R195" s="7"/>
-      <c r="S195" s="7"/>
-    </row>
-    <row r="196" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A196" s="2"/>
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-      <c r="D196" s="2"/>
-      <c r="F196" s="7"/>
-      <c r="G196" s="7"/>
-      <c r="P196" s="2"/>
-      <c r="Q196" s="8"/>
-      <c r="R196" s="7"/>
-      <c r="S196" s="7"/>
-    </row>
-    <row r="197" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-      <c r="D197" s="2"/>
-      <c r="F197" s="7"/>
-      <c r="G197" s="7"/>
-      <c r="P197" s="2"/>
-      <c r="Q197" s="8"/>
-      <c r="R197" s="7"/>
-      <c r="S197" s="7"/>
-    </row>
-    <row r="198" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A198" s="2"/>
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-      <c r="D198" s="2"/>
-      <c r="F198" s="7"/>
-      <c r="G198" s="7"/>
-      <c r="P198" s="2"/>
-      <c r="Q198" s="8"/>
-      <c r="R198" s="7"/>
-      <c r="S198" s="7"/>
-    </row>
-    <row r="199" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="F199" s="7"/>
-      <c r="G199" s="7"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="8"/>
-      <c r="R199" s="7"/>
-      <c r="S199" s="7"/>
-    </row>
-    <row r="200" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-      <c r="D200" s="2"/>
-      <c r="F200" s="7"/>
-      <c r="G200" s="7"/>
-      <c r="P200" s="2"/>
-      <c r="Q200" s="8"/>
-      <c r="R200" s="7"/>
-      <c r="S200" s="7"/>
-    </row>
-    <row r="201" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-      <c r="D201" s="2"/>
-      <c r="F201" s="7"/>
-      <c r="G201" s="7"/>
-      <c r="P201" s="2"/>
-      <c r="Q201" s="8"/>
-      <c r="R201" s="7"/>
-      <c r="S201" s="7"/>
-    </row>
-    <row r="202" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="F202" s="7"/>
-      <c r="G202" s="7"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="8"/>
-      <c r="R202" s="7"/>
-      <c r="S202" s="7"/>
-    </row>
-    <row r="203" spans="1:19" ht="15.75" customHeight="1">
+    <row r="185" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+    </row>
+    <row r="186" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F186" s="9"/>
+      <c r="G186" s="9"/>
+    </row>
+    <row r="187" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F187" s="9"/>
+      <c r="G187" s="9"/>
+    </row>
+    <row r="188" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F188" s="9"/>
+      <c r="G188" s="9"/>
+    </row>
+    <row r="189" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F189" s="9"/>
+      <c r="G189" s="9"/>
+    </row>
+    <row r="190" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F190" s="9"/>
+      <c r="G190" s="9"/>
+    </row>
+    <row r="191" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F191" s="9"/>
+      <c r="G191" s="9"/>
+    </row>
+    <row r="192" spans="1:19" ht="15.75" customHeight="1">
+      <c r="F192" s="9"/>
+      <c r="G192" s="9"/>
+    </row>
+    <row r="193" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F193" s="9"/>
+      <c r="G193" s="9"/>
+    </row>
+    <row r="194" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F194" s="9"/>
+      <c r="G194" s="9"/>
+    </row>
+    <row r="195" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F195" s="9"/>
+      <c r="G195" s="9"/>
+    </row>
+    <row r="196" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F196" s="9"/>
+      <c r="G196" s="9"/>
+    </row>
+    <row r="197" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F197" s="9"/>
+      <c r="G197" s="9"/>
+    </row>
+    <row r="198" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F198" s="9"/>
+      <c r="G198" s="9"/>
+    </row>
+    <row r="199" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+    </row>
+    <row r="200" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F200" s="9"/>
+      <c r="G200" s="9"/>
+    </row>
+    <row r="201" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F201" s="9"/>
+      <c r="G201" s="9"/>
+    </row>
+    <row r="202" spans="6:7" ht="15.75" customHeight="1">
+      <c r="F202" s="9"/>
+      <c r="G202" s="9"/>
+    </row>
+    <row r="203" spans="6:7" ht="15.75" customHeight="1">
       <c r="F203" s="9"/>
       <c r="G203" s="9"/>
     </row>
-    <row r="204" spans="1:19" ht="15.75" customHeight="1">
+    <row r="204" spans="6:7" ht="15.75" customHeight="1">
       <c r="F204" s="9"/>
       <c r="G204" s="9"/>
     </row>
-    <row r="205" spans="1:19" ht="15.75" customHeight="1">
+    <row r="205" spans="6:7" ht="15.75" customHeight="1">
       <c r="F205" s="9"/>
       <c r="G205" s="9"/>
     </row>
-    <row r="206" spans="1:19" ht="15.75" customHeight="1">
+    <row r="206" spans="6:7" ht="15.75" customHeight="1">
       <c r="F206" s="9"/>
       <c r="G206" s="9"/>
     </row>
-    <row r="207" spans="1:19" ht="15.75" customHeight="1">
+    <row r="207" spans="6:7" ht="15.75" customHeight="1">
       <c r="F207" s="9"/>
       <c r="G207" s="9"/>
     </row>
-    <row r="208" spans="1:19" ht="15.75" customHeight="1">
+    <row r="208" spans="6:7" ht="15.75" customHeight="1">
       <c r="F208" s="9"/>
       <c r="G208" s="9"/>
     </row>
@@ -5097,78 +4953,6 @@
     <row r="719" spans="6:7" ht="15.75" customHeight="1">
       <c r="F719" s="9"/>
       <c r="G719" s="9"/>
-    </row>
-    <row r="720" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F720" s="9"/>
-      <c r="G720" s="9"/>
-    </row>
-    <row r="721" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F721" s="9"/>
-      <c r="G721" s="9"/>
-    </row>
-    <row r="722" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F722" s="9"/>
-      <c r="G722" s="9"/>
-    </row>
-    <row r="723" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F723" s="9"/>
-      <c r="G723" s="9"/>
-    </row>
-    <row r="724" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F724" s="9"/>
-      <c r="G724" s="9"/>
-    </row>
-    <row r="725" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F725" s="9"/>
-      <c r="G725" s="9"/>
-    </row>
-    <row r="726" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F726" s="9"/>
-      <c r="G726" s="9"/>
-    </row>
-    <row r="727" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F727" s="9"/>
-      <c r="G727" s="9"/>
-    </row>
-    <row r="728" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F728" s="9"/>
-      <c r="G728" s="9"/>
-    </row>
-    <row r="729" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F729" s="9"/>
-      <c r="G729" s="9"/>
-    </row>
-    <row r="730" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F730" s="9"/>
-      <c r="G730" s="9"/>
-    </row>
-    <row r="731" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F731" s="9"/>
-      <c r="G731" s="9"/>
-    </row>
-    <row r="732" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F732" s="9"/>
-      <c r="G732" s="9"/>
-    </row>
-    <row r="733" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F733" s="9"/>
-      <c r="G733" s="9"/>
-    </row>
-    <row r="734" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F734" s="9"/>
-      <c r="G734" s="9"/>
-    </row>
-    <row r="735" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F735" s="9"/>
-      <c r="G735" s="9"/>
-    </row>
-    <row r="736" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F736" s="9"/>
-      <c r="G736" s="9"/>
-    </row>
-    <row r="737" spans="6:7" ht="15.75" customHeight="1">
-      <c r="F737" s="9"/>
-      <c r="G737" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2 H2:M2">
@@ -5231,7 +5015,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
